--- a/forms/ds4owd_precourse_survey.xlsx
+++ b/forms/ds4owd_precourse_survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwalder/Documents/gitrepos/pre-course-survey/forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B254B515-27C5-6141-B60D-019C8CA4224A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2C94F2-BBA1-5345-AA76-CBEB2421A3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <author>tc={EC52FF30-1F93-454C-B4D1-296FBEFB8F09}</author>
   </authors>
   <commentList>
-    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{228002C7-D79D-6449-BF9C-ECA8C631634A}">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{228002C7-D79D-6449-BF9C-ECA8C631634A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -39,7 +39,7 @@
     Not required?</t>
       </text>
     </comment>
-    <comment ref="C11" authorId="1" shapeId="0" xr:uid="{7853D72E-F52B-6C4C-BEB8-5A750C787E78}">
+    <comment ref="C16" authorId="1" shapeId="0" xr:uid="{7853D72E-F52B-6C4C-BEB8-5A750C787E78}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -47,7 +47,7 @@
     Not required?</t>
       </text>
     </comment>
-    <comment ref="C17" authorId="2" shapeId="0" xr:uid="{D9A1B66C-31BB-F14F-B0E8-85230951B9A0}">
+    <comment ref="C22" authorId="2" shapeId="0" xr:uid="{D9A1B66C-31BB-F14F-B0E8-85230951B9A0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -55,7 +55,7 @@
     Not required?</t>
       </text>
     </comment>
-    <comment ref="A56" authorId="3" shapeId="0" xr:uid="{9157A60D-B085-8742-948E-C529D1FAFAE4}">
+    <comment ref="A67" authorId="3" shapeId="0" xr:uid="{9157A60D-B085-8742-948E-C529D1FAFAE4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +63,7 @@
     There should be a "No" option as well</t>
       </text>
     </comment>
-    <comment ref="A59" authorId="4" shapeId="0" xr:uid="{EC52FF30-1F93-454C-B4D1-296FBEFB8F09}">
+    <comment ref="A70" authorId="4" shapeId="0" xr:uid="{EC52FF30-1F93-454C-B4D1-296FBEFB8F09}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="904">
   <si>
     <t>type</t>
   </si>
@@ -2473,9 +2473,6 @@
   </si>
   <si>
     <t>No, I am not interested</t>
-  </si>
-  <si>
-    <t>yes_only</t>
   </si>
   <si>
     <t>form_title</t>
@@ -2540,6 +2537,276 @@
   </si>
   <si>
     <t>Note that you must acknowledge the Code of Conduct and provide consent to be able to submit the form.</t>
+  </si>
+  <si>
+    <t>select_one list_gender</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>What is your gender?</t>
+  </si>
+  <si>
+    <t>gender_self_describe</t>
+  </si>
+  <si>
+    <t>Prefer to self-describe:</t>
+  </si>
+  <si>
+    <t>select_one list_age_group</t>
+  </si>
+  <si>
+    <t>age_group</t>
+  </si>
+  <si>
+    <t>What is your age group?</t>
+  </si>
+  <si>
+    <t>select_one list_accessibility</t>
+  </si>
+  <si>
+    <t>accessibility_needs</t>
+  </si>
+  <si>
+    <t>Do you have any accessibility needs we should be aware of?</t>
+  </si>
+  <si>
+    <t>accessibility_specify</t>
+  </si>
+  <si>
+    <t>Yes (please specify):</t>
+  </si>
+  <si>
+    <t>${gender} = 'self_describe'</t>
+  </si>
+  <si>
+    <t>${accessibility_needs} = 'yes'</t>
+  </si>
+  <si>
+    <t>list_gender</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>Woman</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>non_binary</t>
+  </si>
+  <si>
+    <t>Non-binary</t>
+  </si>
+  <si>
+    <t>self_describe</t>
+  </si>
+  <si>
+    <t>prefer_not_to_say_gender</t>
+  </si>
+  <si>
+    <t>Prefer not to say</t>
+  </si>
+  <si>
+    <t>list_age_group</t>
+  </si>
+  <si>
+    <t>under_18</t>
+  </si>
+  <si>
+    <t>Under 18</t>
+  </si>
+  <si>
+    <t>18_24</t>
+  </si>
+  <si>
+    <t>18–24</t>
+  </si>
+  <si>
+    <t>25_34</t>
+  </si>
+  <si>
+    <t>25–34</t>
+  </si>
+  <si>
+    <t>35_44</t>
+  </si>
+  <si>
+    <t>35–44</t>
+  </si>
+  <si>
+    <t>45_54</t>
+  </si>
+  <si>
+    <t>45–54</t>
+  </si>
+  <si>
+    <t>55_64</t>
+  </si>
+  <si>
+    <t>55–64</t>
+  </si>
+  <si>
+    <t>65_or_older</t>
+  </si>
+  <si>
+    <t>65 or older</t>
+  </si>
+  <si>
+    <t>prefer_not_to_say_age</t>
+  </si>
+  <si>
+    <t>list_accessibility</t>
+  </si>
+  <si>
+    <t>prefer_not_to_say_accessibility</t>
+  </si>
+  <si>
+    <t>list_password_storage</t>
+  </si>
+  <si>
+    <t>I don’t store them anywhere</t>
+  </si>
+  <si>
+    <t>unprotected_digital</t>
+  </si>
+  <si>
+    <t>I store them in an unprotected digital file or app (e.g., Word, Excel, email, WhatsApp)</t>
+  </si>
+  <si>
+    <t>I write them down on paper</t>
+  </si>
+  <si>
+    <t>password_manager</t>
+  </si>
+  <si>
+    <t>I use a password manager</t>
+  </si>
+  <si>
+    <t>list_web_browser</t>
+  </si>
+  <si>
+    <t>google_chrome</t>
+  </si>
+  <si>
+    <t>Google Chrome</t>
+  </si>
+  <si>
+    <t>apple_safari</t>
+  </si>
+  <si>
+    <t>Apple Safari</t>
+  </si>
+  <si>
+    <t>microsoft_edge</t>
+  </si>
+  <si>
+    <t>Microsoft Edge</t>
+  </si>
+  <si>
+    <t>mozilla_firefox</t>
+  </si>
+  <si>
+    <t>Mozilla Firefox</t>
+  </si>
+  <si>
+    <t>samsung_internet</t>
+  </si>
+  <si>
+    <t>Samsung Internet</t>
+  </si>
+  <si>
+    <t>opera</t>
+  </si>
+  <si>
+    <t>Opera</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>Brave</t>
+  </si>
+  <si>
+    <t>vivaldi</t>
+  </si>
+  <si>
+    <t>Vivaldi</t>
+  </si>
+  <si>
+    <t>arc</t>
+  </si>
+  <si>
+    <t>Arc</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>select_one list_password_storage</t>
+  </si>
+  <si>
+    <t>password_storage</t>
+  </si>
+  <si>
+    <t>How do you usually store your passwords or credentials?</t>
+  </si>
+  <si>
+    <t>select_one list_web_browser</t>
+  </si>
+  <si>
+    <t>web_browser</t>
+  </si>
+  <si>
+    <t>Which web browser do you use most often?</t>
+  </si>
+  <si>
+    <t>web_browser_other</t>
+  </si>
+  <si>
+    <t>Other (please specify):</t>
+  </si>
+  <si>
+    <t>${web_browser} = 'other'</t>
+  </si>
+  <si>
+    <t>use_bookmarks</t>
+  </si>
+  <si>
+    <t>Do you use browser bookmarks?</t>
+  </si>
+  <si>
+    <t>use_note_taking_tool</t>
+  </si>
+  <si>
+    <t>Do you use a note-taking tool?</t>
+  </si>
+  <si>
+    <t>note_taking_tool_specify</t>
+  </si>
+  <si>
+    <t>${use_note_taking_tool} = 'yes'</t>
+  </si>
+  <si>
+    <t>Which tool to you use?</t>
+  </si>
+  <si>
+    <t>You have to answer this question with "yes" to be able to submit the form.</t>
+  </si>
+  <si>
+    <t>This question is optional.</t>
+  </si>
+  <si>
+    <t>Prefer to self-describe</t>
+  </si>
+  <si>
+    <t>Select the option that best describes your usual practice.</t>
   </si>
 </sst>
 </file>
@@ -2567,8 +2834,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2628,7 +2895,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2651,6 +2918,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2959,19 +3227,19 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D9" dT="2025-07-02T16:16:20.02" personId="{5C321BBF-5658-5540-AD42-8E179DB5663B}" id="{228002C7-D79D-6449-BF9C-ECA8C631634A}">
+  <threadedComment ref="D14" dT="2025-07-02T16:16:20.02" personId="{5C321BBF-5658-5540-AD42-8E179DB5663B}" id="{228002C7-D79D-6449-BF9C-ECA8C631634A}">
     <text>Not required?</text>
   </threadedComment>
-  <threadedComment ref="C11" dT="2025-07-02T16:16:38.78" personId="{5C321BBF-5658-5540-AD42-8E179DB5663B}" id="{7853D72E-F52B-6C4C-BEB8-5A750C787E78}">
+  <threadedComment ref="C16" dT="2025-07-02T16:16:38.78" personId="{5C321BBF-5658-5540-AD42-8E179DB5663B}" id="{7853D72E-F52B-6C4C-BEB8-5A750C787E78}">
     <text>Not required?</text>
   </threadedComment>
-  <threadedComment ref="C17" dT="2025-07-02T16:16:45.94" personId="{5C321BBF-5658-5540-AD42-8E179DB5663B}" id="{D9A1B66C-31BB-F14F-B0E8-85230951B9A0}">
+  <threadedComment ref="C22" dT="2025-07-02T16:16:45.94" personId="{5C321BBF-5658-5540-AD42-8E179DB5663B}" id="{D9A1B66C-31BB-F14F-B0E8-85230951B9A0}">
     <text>Not required?</text>
   </threadedComment>
-  <threadedComment ref="A56" dT="2025-07-02T16:15:50.10" personId="{5C321BBF-5658-5540-AD42-8E179DB5663B}" id="{9157A60D-B085-8742-948E-C529D1FAFAE4}">
+  <threadedComment ref="A67" dT="2025-07-02T16:15:50.10" personId="{5C321BBF-5658-5540-AD42-8E179DB5663B}" id="{9157A60D-B085-8742-948E-C529D1FAFAE4}">
     <text>There should be a "No" option as well</text>
   </threadedComment>
-  <threadedComment ref="A59" dT="2025-07-03T09:11:31.61" personId="{5C321BBF-5658-5540-AD42-8E179DB5663B}" id="{EC52FF30-1F93-454C-B4D1-296FBEFB8F09}">
+  <threadedComment ref="A70" dT="2025-07-03T09:11:31.61" personId="{5C321BBF-5658-5540-AD42-8E179DB5663B}" id="{EC52FF30-1F93-454C-B4D1-296FBEFB8F09}">
     <text>Added this question that is only displayed if code_conduct and data_privacy are answered with "Yes". This means that the form can only be submitted if both are accepted.</text>
   </threadedComment>
 </ThreadedComments>
@@ -2979,11 +3247,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3035,10 +3303,10 @@
         <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>806</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>807</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3144,473 +3412,491 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>814</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>815</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>816</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="J9" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>36</v>
+      <c r="F9" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>817</v>
+      </c>
+      <c r="C10" t="s">
+        <v>818</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>819</v>
+      </c>
+      <c r="B11" t="s">
+        <v>820</v>
+      </c>
+      <c r="C11" t="s">
+        <v>821</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>822</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>823</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>824</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
       </c>
+      <c r="F12" t="s">
+        <v>901</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>825</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>826</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
       </c>
+      <c r="G13" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
       </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" t="s">
-        <v>45</v>
+      <c r="F14" t="s">
+        <v>901</v>
+      </c>
+      <c r="J14" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -3618,13 +3904,13 @@
         <v>105</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -3632,13 +3918,13 @@
         <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -3646,109 +3932,142 @@
         <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>123</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>809</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D51" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D52" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
-        <v>34</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>884</v>
+      </c>
+      <c r="B53" t="s">
+        <v>885</v>
+      </c>
+      <c r="C53" t="s">
+        <v>886</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>887</v>
       </c>
       <c r="B54" t="s">
-        <v>813</v>
+        <v>888</v>
       </c>
       <c r="C54" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>132</v>
+        <v>889</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>890</v>
+      </c>
+      <c r="C55" t="s">
+        <v>891</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>893</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>894</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
@@ -3756,35 +4075,174 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>895</v>
       </c>
       <c r="C57" t="s">
-        <v>136</v>
+        <v>896</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>897</v>
+      </c>
+      <c r="C58" t="s">
+        <v>899</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="60" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>808</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" t="s">
+        <v>812</v>
+      </c>
+      <c r="C65" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>808</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>808</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>808</v>
+      </c>
+      <c r="B70" t="s">
         <v>809</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C70" t="s">
         <v>810</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" t="s">
         <v>811</v>
-      </c>
-      <c r="G59" t="s">
-        <v>812</v>
       </c>
     </row>
   </sheetData>
@@ -3795,10 +4253,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C334"/>
+  <dimension ref="A1:C363"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A331" sqref="A331"/>
+    <sheetView topLeftCell="A326" workbookViewId="0">
+      <selection activeCell="I340" sqref="I340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7418,7 +7876,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B329" s="5" t="s">
         <v>17</v>
@@ -7429,7 +7887,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B330" s="5" t="s">
         <v>33</v>
@@ -7472,14 +7930,333 @@
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A334" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="B334" s="5" t="s">
+      <c r="A334" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="B334" s="12" t="s">
+        <v>830</v>
+      </c>
+      <c r="C334" s="12" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="B335" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="C335" s="12" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="B336" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="C336" s="12" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="B337" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="C337" s="12" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="B338" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="C338" s="12" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="B339" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="C339" s="12" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="B340" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="C340" s="12" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="B341" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="C341" s="12" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="B342" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="C342" s="12" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="B343" s="12" t="s">
+        <v>848</v>
+      </c>
+      <c r="C343" s="12" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="B344" s="12" t="s">
+        <v>850</v>
+      </c>
+      <c r="C344" s="12" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="B345" s="12" t="s">
+        <v>852</v>
+      </c>
+      <c r="C345" s="12" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="B346" s="12" t="s">
+        <v>854</v>
+      </c>
+      <c r="C346" s="12" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="B347" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C334" s="5" t="s">
+      <c r="C347" s="12" t="s">
         <v>790</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="B348" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C348" s="12" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="B349" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="C349" s="12" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="B350" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C350" s="12" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="B351" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="C351" s="12" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="B352" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="C352" s="12" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="B353" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="C353" s="12" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="B354" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="C354" s="12" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="B355" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="C355" s="12" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="B356" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="C356" s="12" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="B357" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="C357" s="12" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="B358" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="C358" s="12" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="B359" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="C359" s="12" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="B360" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="C360" s="12" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="B361" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="C361" s="12" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="B362" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="C362" s="12" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="B363" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C363" s="12" t="s">
+        <v>883</v>
       </c>
     </row>
   </sheetData>
@@ -7504,21 +8281,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>801</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>803</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>804</v>
       </c>
       <c r="C2" s="5">
         <v>20250701</v>

--- a/forms/ds4owd_precourse_survey.xlsx
+++ b/forms/ds4owd_precourse_survey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwalder/Documents/gitrepos/pre-course-survey/forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2475AF22-D8BC-C846-AB5A-6E40B14A5DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF5189D-FE93-EF46-AE45-6C17249F8F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33320" yWindow="500" windowWidth="30240" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,62 +21,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={228002C7-D79D-6449-BF9C-ECA8C631634A}</author>
-    <author>tc={7853D72E-F52B-6C4C-BEB8-5A750C787E78}</author>
-    <author>tc={D9A1B66C-31BB-F14F-B0E8-85230951B9A0}</author>
-    <author>tc={9157A60D-B085-8742-948E-C529D1FAFAE4}</author>
-    <author>tc={EC52FF30-1F93-454C-B4D1-296FBEFB8F09}</author>
-  </authors>
-  <commentList>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{228002C7-D79D-6449-BF9C-ECA8C631634A}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Not required?</t>
-      </text>
-    </comment>
-    <comment ref="C16" authorId="1" shapeId="0" xr:uid="{7853D72E-F52B-6C4C-BEB8-5A750C787E78}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Not required?</t>
-      </text>
-    </comment>
-    <comment ref="C22" authorId="2" shapeId="0" xr:uid="{D9A1B66C-31BB-F14F-B0E8-85230951B9A0}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Not required?</t>
-      </text>
-    </comment>
-    <comment ref="A68" authorId="3" shapeId="0" xr:uid="{9157A60D-B085-8742-948E-C529D1FAFAE4}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    There should be a "No" option as well</t>
-      </text>
-    </comment>
-    <comment ref="A71" authorId="4" shapeId="0" xr:uid="{EC52FF30-1F93-454C-B4D1-296FBEFB8F09}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Added this question that is only displayed if code_conduct and data_privacy are answered with "Yes". This means that the form can only be submitted if both are accepted.</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="909">
   <si>
     <t>type</t>
   </si>
@@ -385,9 +331,6 @@
   </si>
   <si>
     <t>Which Large Language Model tools/platforms have you used?</t>
-  </si>
-  <si>
-    <t>llm_usage_intro</t>
   </si>
   <si>
     <t>How frequently do you use Large Language Models for the following tasks?</t>
@@ -2521,21 +2464,6 @@
     <t>select_one yesno</t>
   </si>
   <si>
-    <t>finalize_survey</t>
-  </si>
-  <si>
-    <t>Submit form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${code_conduct}="yes" and ${data_privacy}="yes" </t>
-  </si>
-  <si>
-    <t>note_form_submission</t>
-  </si>
-  <si>
-    <t>Note that you must acknowledge the Code of Conduct and provide consent to be able to submit the form.</t>
-  </si>
-  <si>
     <t>select_one list_gender</t>
   </si>
   <si>
@@ -2791,12 +2719,6 @@
     <t>${use_note_taking_tool} = 'yes'</t>
   </si>
   <si>
-    <t>Which tool to you use?</t>
-  </si>
-  <si>
-    <t>You have to answer this question with "yes" to be able to submit the form.</t>
-  </si>
-  <si>
     <t>This question is optional.</t>
   </si>
   <si>
@@ -2813,6 +2735,39 @@
   </si>
   <si>
     <t>I acknowledge that I have read and understood the code of conduct for this course, and I commit to complying with its guidelines and principles to ensure a respectful and ethical learning environment for all participants. Available at: [https://ds4owd-002.github.io/website/code_of_conduct.html](https://ds4owd-002.github.io/website/code_of_conduct.html)</t>
+  </si>
+  <si>
+    <t>likert</t>
+  </si>
+  <si>
+    <t>llms</t>
+  </si>
+  <si>
+    <t>if(selected(., "none"), count-selected(.)=1, count-selected(.)&gt;=1)</t>
+  </si>
+  <si>
+    <t>You can't select "None" and other options at the same time.</t>
+  </si>
+  <si>
+    <t>not(selected(${llm_platforms}, 'none'))</t>
+  </si>
+  <si>
+    <t>select_one yes</t>
+  </si>
+  <si>
+    <t>Which tool do you use?</t>
+  </si>
+  <si>
+    <t>more_info</t>
+  </si>
+  <si>
+    <t>I need more information</t>
+  </si>
+  <si>
+    <t>yesnomoreinfo</t>
+  </si>
+  <si>
+    <t>select_one yesnomoreinfo</t>
   </si>
 </sst>
 </file>
@@ -2845,7 +2800,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2888,6 +2843,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2901,7 +2862,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2922,8 +2883,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2940,12 +2902,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Walder  Colin" id="{5C321BBF-5658-5540-AD42-8E179DB5663B}" userId="S::cwalder@ethz.ch::3c63843a-5e00-4fbe-8987-a7339fd907f9" providerId="AD"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3231,33 +3187,13 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D14" dT="2025-07-02T16:16:20.02" personId="{5C321BBF-5658-5540-AD42-8E179DB5663B}" id="{228002C7-D79D-6449-BF9C-ECA8C631634A}">
-    <text>Not required?</text>
-  </threadedComment>
-  <threadedComment ref="C16" dT="2025-07-02T16:16:38.78" personId="{5C321BBF-5658-5540-AD42-8E179DB5663B}" id="{7853D72E-F52B-6C4C-BEB8-5A750C787E78}">
-    <text>Not required?</text>
-  </threadedComment>
-  <threadedComment ref="C22" dT="2025-07-02T16:16:45.94" personId="{5C321BBF-5658-5540-AD42-8E179DB5663B}" id="{D9A1B66C-31BB-F14F-B0E8-85230951B9A0}">
-    <text>Not required?</text>
-  </threadedComment>
-  <threadedComment ref="A68" dT="2025-07-02T16:15:50.10" personId="{5C321BBF-5658-5540-AD42-8E179DB5663B}" id="{9157A60D-B085-8742-948E-C529D1FAFAE4}">
-    <text>There should be a "No" option as well</text>
-  </threadedComment>
-  <threadedComment ref="A71" dT="2025-07-03T09:11:31.61" personId="{5C321BBF-5658-5540-AD42-8E179DB5663B}" id="{EC52FF30-1F93-454C-B4D1-296FBEFB8F09}">
-    <text>Added this question that is only displayed if code_conduct and data_privacy are answered with "Yes". This means that the form can only be submitted if both are accepted.</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3304,15 +3240,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>804</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>805</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3418,19 +3354,19 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="B9" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="C9" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3438,50 +3374,50 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C10" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="B11" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="C11" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="B12" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="C12" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3489,16 +3425,16 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="C13" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3512,13 +3448,10 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" t="s">
-        <v>900</v>
+        <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3740,7 +3673,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -3754,7 +3687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -3768,7 +3701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -3781,8 +3714,14 @@
       <c r="D35" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>900</v>
+      </c>
+      <c r="I35" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -3796,7 +3735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -3810,7 +3749,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -3824,7 +3763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -3838,7 +3777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -3851,8 +3790,14 @@
       <c r="D40" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>900</v>
+      </c>
+      <c r="I40" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -3866,7 +3811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -3880,7 +3825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -3893,390 +3838,396 @@
       <c r="D43" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="H43" t="s">
+        <v>900</v>
+      </c>
+      <c r="I43" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>899</v>
+      </c>
+      <c r="C44" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C44" t="s">
+      <c r="G44" s="12" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
         <v>105</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>106</v>
-      </c>
-      <c r="C45" t="s">
-        <v>107</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J45" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" t="s">
         <v>108</v>
-      </c>
-      <c r="C46" t="s">
-        <v>109</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J46" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" t="s">
         <v>110</v>
-      </c>
-      <c r="C47" t="s">
-        <v>111</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J47" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" t="s">
         <v>112</v>
-      </c>
-      <c r="C48" t="s">
-        <v>113</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J48" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" t="s">
         <v>114</v>
-      </c>
-      <c r="C49" t="s">
-        <v>115</v>
       </c>
       <c r="D49" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J49" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" t="s">
         <v>116</v>
-      </c>
-      <c r="C50" t="s">
-        <v>117</v>
       </c>
       <c r="D50" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J50" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" t="s">
         <v>118</v>
-      </c>
-      <c r="C51" t="s">
-        <v>119</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J51" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" t="s">
         <v>120</v>
-      </c>
-      <c r="C52" t="s">
-        <v>121</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>883</v>
-      </c>
-      <c r="B53" t="s">
-        <v>884</v>
-      </c>
-      <c r="C53" t="s">
-        <v>885</v>
-      </c>
-      <c r="D53" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J52" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="B54" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="C54" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>880</v>
       </c>
       <c r="B55" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="C55" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
       </c>
-      <c r="G55" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>807</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="C56" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B57" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="C57" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>806</v>
       </c>
       <c r="B58" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="C58" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="D58" t="s">
         <v>17</v>
       </c>
-      <c r="G58" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>890</v>
+      </c>
+      <c r="C59" t="s">
+        <v>904</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
+    <row r="61" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B61" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="9" t="s">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="C62" t="s">
         <v>124</v>
-      </c>
-      <c r="C61" t="s">
-        <v>125</v>
-      </c>
-      <c r="D61" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>807</v>
-      </c>
-      <c r="B62" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" t="s">
-        <v>127</v>
       </c>
       <c r="D62" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>806</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65" t="s">
-        <v>811</v>
-      </c>
-      <c r="C65" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="10" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>908</v>
+      </c>
+      <c r="B66" t="s">
+        <v>895</v>
+      </c>
+      <c r="C66" t="s">
+        <v>896</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B67" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="10" t="s">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>903</v>
+      </c>
+      <c r="B68" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>807</v>
-      </c>
-      <c r="B67" t="s">
-        <v>903</v>
-      </c>
-      <c r="C67" t="s">
-        <v>904</v>
-      </c>
-      <c r="D67" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>807</v>
-      </c>
-      <c r="B68" t="s">
-        <v>133</v>
-      </c>
       <c r="C68" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="D68" t="s">
         <v>17</v>
       </c>
-      <c r="F68" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>807</v>
+        <v>903</v>
       </c>
       <c r="B69" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" t="s">
         <v>134</v>
-      </c>
-      <c r="C69" t="s">
-        <v>135</v>
       </c>
       <c r="D69" t="s">
         <v>17</v>
       </c>
-      <c r="F69" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>807</v>
-      </c>
-      <c r="B71" t="s">
-        <v>808</v>
-      </c>
-      <c r="C71" t="s">
-        <v>809</v>
-      </c>
-      <c r="D71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s">
-        <v>810</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C363"/>
+  <dimension ref="A1:C368"/>
   <sheetViews>
-    <sheetView topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="I340" sqref="I340"/>
+    <sheetView topLeftCell="A338" workbookViewId="0">
+      <selection activeCell="A366" sqref="A366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4288,7 +4239,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -4299,3984 +4250,4039 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>335</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B102" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B103" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B104" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B105" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B106" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B107" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B108" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B109" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B110" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>357</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B111" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B112" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B113" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B114" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B115" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B117" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B118" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B119" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B120" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>377</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B121" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B122" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B123" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C123" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B124" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B125" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B126" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>389</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B127" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B128" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>393</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B129" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C129" s="4" t="s">
         <v>395</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B130" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B131" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>399</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B132" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B133" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B134" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C134" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B135" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C135" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B136" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C136" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B137" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>411</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B138" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>413</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B139" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B140" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C140" s="4" t="s">
         <v>417</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B141" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B142" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C142" s="4" t="s">
         <v>421</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B143" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C143" s="4" t="s">
         <v>423</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B144" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B145" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C145" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B146" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C146" s="4" t="s">
         <v>429</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B147" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C147" s="4" t="s">
         <v>431</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B148" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C148" s="4" t="s">
         <v>433</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B149" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>435</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B150" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C150" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B151" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C151" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B152" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C152" s="4" t="s">
         <v>441</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B153" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C153" s="4" t="s">
         <v>443</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B154" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C154" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B155" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C155" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B156" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C156" s="4" t="s">
         <v>449</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B157" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C157" s="4" t="s">
         <v>451</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B158" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C158" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B159" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C159" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B160" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C160" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B161" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C161" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B162" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C162" s="4" t="s">
         <v>461</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B163" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C163" s="4" t="s">
         <v>463</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B164" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C164" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B165" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C165" s="4" t="s">
         <v>467</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B166" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C166" s="4" t="s">
         <v>469</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B167" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C167" s="4" t="s">
         <v>471</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B168" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C168" s="4" t="s">
         <v>473</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B169" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C169" s="4" t="s">
         <v>475</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B170" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C170" s="4" t="s">
         <v>477</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B171" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C171" s="4" t="s">
         <v>479</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B172" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C172" s="4" t="s">
         <v>481</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B173" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C173" s="4" t="s">
         <v>483</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B174" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C174" s="4" t="s">
         <v>485</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B175" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C175" s="4" t="s">
         <v>487</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B176" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C176" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B177" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>491</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B178" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C178" s="4" t="s">
         <v>493</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B179" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C179" s="4" t="s">
         <v>495</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B180" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C180" s="4" t="s">
         <v>497</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B181" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C181" s="4" t="s">
         <v>499</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B182" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C182" s="4" t="s">
         <v>501</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B183" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C183" s="4" t="s">
         <v>503</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B184" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C184" s="4" t="s">
         <v>505</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B185" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C185" s="4" t="s">
         <v>507</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B186" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C186" s="4" t="s">
         <v>509</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B187" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C187" s="4" t="s">
         <v>511</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B188" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C188" s="4" t="s">
         <v>513</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B189" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C189" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B190" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B191" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C191" s="4" t="s">
         <v>519</v>
-      </c>
-      <c r="C191" s="4" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B192" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C192" s="4" t="s">
         <v>521</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B193" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C193" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B194" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C194" s="4" t="s">
         <v>525</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B195" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C195" s="4" t="s">
         <v>527</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B196" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C196" s="4" t="s">
         <v>529</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B197" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C197" s="4" t="s">
         <v>531</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B198" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C198" s="4" t="s">
         <v>533</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B199" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C199" s="4" t="s">
         <v>535</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B200" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="C200" s="4" t="s">
         <v>537</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B201" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C201" s="4" t="s">
         <v>539</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B202" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C202" s="4" t="s">
         <v>541</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B203" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="C203" s="4" t="s">
         <v>543</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C204" s="4" t="s">
         <v>545</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C205" s="4" t="s">
         <v>547</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B206" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C206" s="4" t="s">
         <v>549</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B207" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C207" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B208" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C208" s="4" t="s">
         <v>553</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B209" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C209" s="4" t="s">
         <v>555</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B210" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C210" s="4" t="s">
         <v>557</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B211" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C211" s="4" t="s">
         <v>559</v>
-      </c>
-      <c r="C211" s="4" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B212" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C212" s="4" t="s">
         <v>561</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B213" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C213" s="4" t="s">
         <v>563</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B214" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C214" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B215" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C215" s="4" t="s">
         <v>567</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B216" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C216" s="4" t="s">
         <v>569</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B217" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C217" s="4" t="s">
         <v>571</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B218" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C218" s="4" t="s">
         <v>573</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B219" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C219" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B220" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C220" s="4" t="s">
         <v>577</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B221" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C221" s="4" t="s">
         <v>579</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B222" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C222" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B223" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C223" s="4" t="s">
         <v>583</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B224" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C224" s="4" t="s">
         <v>585</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B225" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C225" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B226" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C226" s="4" t="s">
         <v>589</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B227" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C227" s="4" t="s">
         <v>591</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B228" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C228" s="4" t="s">
         <v>593</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B229" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C229" s="4" t="s">
         <v>595</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B230" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="C230" s="4" t="s">
         <v>598</v>
-      </c>
-      <c r="C230" s="4" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B231" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C231" s="4" t="s">
         <v>600</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B232" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C232" s="4" t="s">
         <v>602</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B233" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C233" s="4" t="s">
         <v>604</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B234" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C234" s="4" t="s">
         <v>606</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B235" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C235" s="4" t="s">
         <v>608</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B236" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C236" s="4" t="s">
         <v>610</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B237" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="C237" s="4" t="s">
         <v>612</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B238" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="C238" s="4" t="s">
         <v>614</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B239" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C239" s="4" t="s">
         <v>616</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B240" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="C240" s="4" t="s">
         <v>618</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B241" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C241" s="4" t="s">
         <v>620</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B242" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C242" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="C242" s="4" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B243" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="C243" s="4" t="s">
         <v>624</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B244" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C244" s="4" t="s">
         <v>626</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B245" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C245" s="4" t="s">
         <v>628</v>
-      </c>
-      <c r="C245" s="4" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B246" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="C246" s="4" t="s">
         <v>630</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B247" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="C247" s="4" t="s">
         <v>632</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B248" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="C248" s="4" t="s">
         <v>634</v>
-      </c>
-      <c r="C248" s="4" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B249" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="C249" s="4" t="s">
         <v>636</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B250" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C250" s="4" t="s">
         <v>638</v>
-      </c>
-      <c r="C250" s="4" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B251" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C251" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="B253" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="C253" s="4" t="s">
         <v>644</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B254" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="C254" s="4" t="s">
         <v>646</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B255" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="C255" s="4" t="s">
         <v>648</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B256" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C256" s="4" t="s">
         <v>650</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="C257" s="4" t="s">
         <v>652</v>
-      </c>
-      <c r="B257" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="C257" s="4" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B258" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="C258" s="4" t="s">
         <v>654</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B259" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="C259" s="4" t="s">
         <v>656</v>
-      </c>
-      <c r="C259" s="4" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B260" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="C260" s="4" t="s">
         <v>658</v>
-      </c>
-      <c r="C260" s="4" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="B261" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="C261" s="4" t="s">
         <v>661</v>
-      </c>
-      <c r="C261" s="4" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B262" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="C262" s="4" t="s">
         <v>663</v>
-      </c>
-      <c r="C262" s="4" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B263" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C263" s="4" t="s">
         <v>665</v>
-      </c>
-      <c r="C263" s="4" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B264" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="C264" s="4" t="s">
         <v>667</v>
-      </c>
-      <c r="C264" s="4" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B266" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="C266" s="4" t="s">
         <v>670</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="B267" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="C267" s="4" t="s">
         <v>673</v>
-      </c>
-      <c r="C267" s="4" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B268" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C268" s="4" t="s">
         <v>675</v>
-      </c>
-      <c r="C268" s="4" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B269" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="C269" s="4" t="s">
         <v>677</v>
-      </c>
-      <c r="C269" s="4" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B270" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="C270" s="4" t="s">
         <v>679</v>
-      </c>
-      <c r="C270" s="4" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B271" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="C271" s="4" t="s">
         <v>682</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B272" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="C272" s="4" t="s">
         <v>684</v>
-      </c>
-      <c r="C272" s="4" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B273" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="C273" s="4" t="s">
         <v>686</v>
-      </c>
-      <c r="C273" s="4" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B274" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C274" s="4" t="s">
         <v>688</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B275" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="C275" s="4" t="s">
         <v>690</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B276" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="C276" s="4" t="s">
         <v>692</v>
-      </c>
-      <c r="C276" s="4" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B277" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="C277" s="4" t="s">
         <v>694</v>
-      </c>
-      <c r="C277" s="4" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B278" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="C278" s="4" t="s">
         <v>696</v>
-      </c>
-      <c r="C278" s="4" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B279" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="C279" s="4" t="s">
         <v>698</v>
-      </c>
-      <c r="C279" s="4" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B280" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C280" s="4" t="s">
         <v>700</v>
-      </c>
-      <c r="C280" s="4" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B281" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C281" s="4" t="s">
         <v>702</v>
-      </c>
-      <c r="C281" s="4" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="C283" s="4" t="s">
         <v>704</v>
-      </c>
-      <c r="B283" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="C283" s="4" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="C287" s="4" t="s">
         <v>709</v>
-      </c>
-      <c r="B287" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="C287" s="4" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="B291" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="B291" s="4" t="s">
+      <c r="C291" s="4" t="s">
         <v>715</v>
-      </c>
-      <c r="C291" s="4" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B292" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C292" s="4" t="s">
         <v>717</v>
-      </c>
-      <c r="C292" s="4" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B293" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C293" s="4" t="s">
         <v>719</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B294" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="C294" s="4" t="s">
         <v>721</v>
-      </c>
-      <c r="C294" s="4" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B295" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="C295" s="4" t="s">
         <v>723</v>
-      </c>
-      <c r="C295" s="4" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B296" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="C296" s="4" t="s">
         <v>725</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B297" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="C297" s="4" t="s">
         <v>727</v>
-      </c>
-      <c r="C297" s="4" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B298" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="C298" s="4" t="s">
         <v>729</v>
-      </c>
-      <c r="C298" s="4" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B299" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="C299" s="4" t="s">
         <v>731</v>
-      </c>
-      <c r="C299" s="4" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B300" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C300" s="4" t="s">
         <v>733</v>
-      </c>
-      <c r="C300" s="4" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B301" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="C301" s="4" t="s">
         <v>735</v>
-      </c>
-      <c r="C301" s="4" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B302" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="C302" s="4" t="s">
         <v>737</v>
-      </c>
-      <c r="C302" s="4" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B303" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C303" s="4" t="s">
         <v>739</v>
-      </c>
-      <c r="C303" s="4" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B304" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="C304" s="4" t="s">
         <v>741</v>
-      </c>
-      <c r="C304" s="4" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B305" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="C305" s="4" t="s">
         <v>743</v>
-      </c>
-      <c r="C305" s="4" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B306" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="C306" s="4" t="s">
         <v>745</v>
-      </c>
-      <c r="C306" s="4" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B307" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="C307" s="4" t="s">
         <v>747</v>
-      </c>
-      <c r="C307" s="4" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B308" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="C308" s="4" t="s">
         <v>749</v>
-      </c>
-      <c r="C308" s="4" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B309" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="C309" s="4" t="s">
         <v>751</v>
-      </c>
-      <c r="C309" s="4" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B310" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="C310" s="4" t="s">
         <v>753</v>
-      </c>
-      <c r="C310" s="4" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B311" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="C311" s="4" t="s">
         <v>755</v>
-      </c>
-      <c r="C311" s="4" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B312" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="C312" s="4" t="s">
         <v>757</v>
-      </c>
-      <c r="C312" s="4" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B313" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="C313" s="4" t="s">
         <v>759</v>
-      </c>
-      <c r="C313" s="4" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B314" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="C314" s="4" t="s">
         <v>761</v>
-      </c>
-      <c r="C314" s="4" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B315" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="C315" s="4" t="s">
         <v>763</v>
-      </c>
-      <c r="C315" s="4" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B316" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="C316" s="4" t="s">
         <v>765</v>
-      </c>
-      <c r="C316" s="4" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B317" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="C317" s="4" t="s">
         <v>767</v>
-      </c>
-      <c r="C317" s="4" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B318" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="C318" s="4" t="s">
         <v>769</v>
-      </c>
-      <c r="C318" s="4" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B319" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="C319" s="4" t="s">
         <v>771</v>
-      </c>
-      <c r="C319" s="4" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B320" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="C320" s="4" t="s">
         <v>773</v>
-      </c>
-      <c r="C320" s="4" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B321" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="C321" s="4" t="s">
         <v>775</v>
-      </c>
-      <c r="C321" s="4" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B322" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="C322" s="4" t="s">
         <v>777</v>
-      </c>
-      <c r="C322" s="4" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B323" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="C323" s="4" t="s">
         <v>779</v>
-      </c>
-      <c r="C323" s="4" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B324" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="C324" s="4" t="s">
         <v>781</v>
-      </c>
-      <c r="C324" s="4" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="4" t="s">
-        <v>783</v>
+        <v>713</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>644</v>
+        <v>195</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>784</v>
+        <v>641</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="C326" s="4" t="s">
         <v>783</v>
-      </c>
-      <c r="B326" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="C326" s="4" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>787</v>
+        <v>647</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="4" t="s">
-        <v>806</v>
+        <v>782</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>17</v>
+        <v>786</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="s">
-        <v>791</v>
+        <v>805</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>792</v>
+        <v>33</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="B332" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="B332" s="4" t="s">
-        <v>794</v>
-      </c>
       <c r="C332" s="4" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B333" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="C333" s="4" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="C334" s="4" t="s">
         <v>796</v>
-      </c>
-      <c r="C333" s="4" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A334" s="11" t="s">
-        <v>828</v>
-      </c>
-      <c r="B334" s="11" t="s">
-        <v>829</v>
-      </c>
-      <c r="C334" s="11" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="11" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="C335" s="11" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="11" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="B336" s="11" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="C336" s="11" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="B337" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="C337" s="11" t="s">
         <v>828</v>
-      </c>
-      <c r="B337" s="11" t="s">
-        <v>835</v>
-      </c>
-      <c r="C337" s="11" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="11" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="C338" s="11" t="s">
-        <v>837</v>
+        <v>893</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="11" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="C339" s="11" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="11" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="B340" s="11" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="C340" s="11" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="11" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="B341" s="11" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="C341" s="11" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="B342" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="C342" s="11" t="s">
         <v>838</v>
-      </c>
-      <c r="B342" s="11" t="s">
-        <v>845</v>
-      </c>
-      <c r="C342" s="11" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="11" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="B343" s="11" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="C343" s="11" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="11" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="C344" s="11" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="11" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="C345" s="11" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="11" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="C346" s="11" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="11" t="s">
-        <v>854</v>
+        <v>832</v>
       </c>
       <c r="B347" s="11" t="s">
-        <v>17</v>
+        <v>847</v>
       </c>
       <c r="C347" s="11" t="s">
-        <v>789</v>
+        <v>831</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="11" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="B348" s="11" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C348" s="11" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="11" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="B349" s="11" t="s">
-        <v>855</v>
+        <v>33</v>
       </c>
       <c r="C349" s="11" t="s">
-        <v>837</v>
+        <v>789</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="11" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="B350" s="11" t="s">
-        <v>196</v>
+        <v>849</v>
       </c>
       <c r="C350" s="11" t="s">
-        <v>857</v>
+        <v>831</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="11" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>858</v>
+        <v>195</v>
       </c>
       <c r="C351" s="11" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="11" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>661</v>
+        <v>852</v>
       </c>
       <c r="C352" s="11" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="11" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>861</v>
+        <v>660</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="11" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="11" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="C355" s="11" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="11" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="11" t="s">
+        <v>857</v>
+      </c>
+      <c r="B357" s="11" t="s">
+        <v>862</v>
+      </c>
+      <c r="C357" s="11" t="s">
         <v>863</v>
-      </c>
-      <c r="B357" s="11" t="s">
-        <v>870</v>
-      </c>
-      <c r="C357" s="11" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="11" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C358" s="11" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="11" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="11" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="11" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B361" s="11" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="C361" s="11" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="11" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="C362" s="11" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="11" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>173</v>
+        <v>874</v>
       </c>
       <c r="C363" s="11" t="s">
-        <v>882</v>
+        <v>875</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364" s="11" t="s">
+        <v>857</v>
+      </c>
+      <c r="B364" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C364" s="11" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B365" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C365" s="11" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>907</v>
+      </c>
+      <c r="B366" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C366" s="11" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>907</v>
+      </c>
+      <c r="B367" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C367" s="11" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>907</v>
+      </c>
+      <c r="B368" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="C368" s="11" t="s">
+        <v>906</v>
       </c>
     </row>
   </sheetData>
@@ -8301,21 +8307,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>799</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>801</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>802</v>
       </c>
       <c r="C2" s="4">
         <v>20250701</v>

--- a/forms/ds4owd_precourse_survey.xlsx
+++ b/forms/ds4owd_precourse_survey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwalder/Documents/gitrepos/pre-course-survey/forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF5189D-FE93-EF46-AE45-6C17249F8F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517402FC-DEC9-AC49-A27E-81D1385D50F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="938">
   <si>
     <t>type</t>
   </si>
@@ -156,9 +156,6 @@
     <t>organisation_name</t>
   </si>
   <si>
-    <t>If employed or self-employed what is the name of the organisation / instituiton?</t>
-  </si>
-  <si>
     <t>${employment_situation}='employed_fulltime' or ${employment_situation}='employed_parttime' or ${employment_situation}='self_employed'</t>
   </si>
   <si>
@@ -543,9 +540,6 @@
     <t>other</t>
   </si>
   <si>
-    <t>Other specify:</t>
-  </si>
-  <si>
     <t>organisation_type</t>
   </si>
   <si>
@@ -603,9 +597,6 @@
     <t>dont_know</t>
   </si>
   <si>
-    <t>I don't know</t>
-  </si>
-  <si>
     <t>programming_exp</t>
   </si>
   <si>
@@ -2305,9 +2296,6 @@
   </si>
   <si>
     <t>cursor</t>
-  </si>
-  <si>
-    <t>Cursor AI</t>
   </si>
   <si>
     <t>magic</t>
@@ -2768,6 +2756,105 @@
   </si>
   <si>
     <t>select_one yesnomoreinfo</t>
+  </si>
+  <si>
+    <t>If employed or self-employed what is the name of the organisation / institution?</t>
+  </si>
+  <si>
+    <t>Cursor</t>
+  </si>
+  <si>
+    <t>Windsurf</t>
+  </si>
+  <si>
+    <t>Zed</t>
+  </si>
+  <si>
+    <t>Fleet (JetBrains)</t>
+  </si>
+  <si>
+    <t>Neovim</t>
+  </si>
+  <si>
+    <t>IntelliJ IDEA</t>
+  </si>
+  <si>
+    <t>WebStorm</t>
+  </si>
+  <si>
+    <t>Nova</t>
+  </si>
+  <si>
+    <t>GitHub Codespaces</t>
+  </si>
+  <si>
+    <t>Replit</t>
+  </si>
+  <si>
+    <t>Gitpod</t>
+  </si>
+  <si>
+    <t>CodeSandbox</t>
+  </si>
+  <si>
+    <t>Android Studio</t>
+  </si>
+  <si>
+    <t>Xcode</t>
+  </si>
+  <si>
+    <t>Notepad++</t>
+  </si>
+  <si>
+    <t>Doom Emacs</t>
+  </si>
+  <si>
+    <t>Helix</t>
+  </si>
+  <si>
+    <t>windsurf</t>
+  </si>
+  <si>
+    <t>zed</t>
+  </si>
+  <si>
+    <t>fleet</t>
+  </si>
+  <si>
+    <t>neovim</t>
+  </si>
+  <si>
+    <t>intellij_idea</t>
+  </si>
+  <si>
+    <t>webstorm</t>
+  </si>
+  <si>
+    <t>nova</t>
+  </si>
+  <si>
+    <t>github_codespaces</t>
+  </si>
+  <si>
+    <t>gitpod</t>
+  </si>
+  <si>
+    <t>codesandbox</t>
+  </si>
+  <si>
+    <t>android_studio</t>
+  </si>
+  <si>
+    <t>xcode</t>
+  </si>
+  <si>
+    <t>notepad</t>
+  </si>
+  <si>
+    <t>doom_emacs</t>
+  </si>
+  <si>
+    <t>helix</t>
   </si>
 </sst>
 </file>
@@ -2891,7 +2978,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3191,9 +3289,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
+    <sheetView zoomScale="109" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3242,13 +3340,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3354,19 +3452,19 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B9" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C9" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3374,50 +3472,50 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C10" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B11" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C11" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B12" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C12" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3425,16 +3523,16 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C13" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3451,7 +3549,7 @@
         <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3481,7 +3579,7 @@
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -3495,7 +3593,7 @@
         <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -3506,30 +3604,30 @@
         <v>43</v>
       </c>
       <c r="C19" t="s">
+        <v>905</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
         <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
         <v>46</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>47</v>
       </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3542,105 +3640,105 @@
         <v>11</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
         <v>51</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>55</v>
       </c>
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
         <v>57</v>
       </c>
-      <c r="C25" t="s">
-        <v>58</v>
-      </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
         <v>59</v>
       </c>
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
         <v>61</v>
       </c>
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
         <v>63</v>
       </c>
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
         <v>65</v>
       </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3653,21 +3751,21 @@
         <v>11</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
         <v>69</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>70</v>
-      </c>
-      <c r="C32" t="s">
-        <v>71</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -3675,13 +3773,13 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
         <v>72</v>
-      </c>
-      <c r="C33" t="s">
-        <v>73</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -3689,13 +3787,13 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
         <v>74</v>
-      </c>
-      <c r="C34" t="s">
-        <v>75</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
@@ -3703,33 +3801,33 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
         <v>76</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>77</v>
-      </c>
-      <c r="C35" t="s">
-        <v>78</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="I35" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
         <v>79</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>80</v>
-      </c>
-      <c r="C36" t="s">
-        <v>81</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -3737,13 +3835,13 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
         <v>82</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>83</v>
-      </c>
-      <c r="C37" t="s">
-        <v>84</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -3751,13 +3849,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
         <v>85</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>86</v>
-      </c>
-      <c r="C38" t="s">
-        <v>87</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
@@ -3765,13 +3863,13 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
         <v>88</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>89</v>
-      </c>
-      <c r="C39" t="s">
-        <v>90</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
@@ -3779,33 +3877,33 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" t="s">
         <v>91</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>92</v>
-      </c>
-      <c r="C40" t="s">
-        <v>93</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="I40" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" t="s">
         <v>94</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>95</v>
-      </c>
-      <c r="C41" t="s">
-        <v>96</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
@@ -3813,13 +3911,13 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" t="s">
         <v>97</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>98</v>
-      </c>
-      <c r="C42" t="s">
-        <v>99</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
@@ -3827,22 +3925,22 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" t="s">
         <v>100</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>101</v>
-      </c>
-      <c r="C43" t="s">
-        <v>102</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="I43" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -3850,149 +3948,149 @@
         <v>11</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" t="s">
         <v>104</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>105</v>
-      </c>
-      <c r="C45" t="s">
-        <v>106</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
       </c>
       <c r="J45" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" t="s">
         <v>107</v>
-      </c>
-      <c r="C46" t="s">
-        <v>108</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
       </c>
       <c r="J46" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" t="s">
         <v>109</v>
-      </c>
-      <c r="C47" t="s">
-        <v>110</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
       </c>
       <c r="J47" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" t="s">
         <v>111</v>
-      </c>
-      <c r="C48" t="s">
-        <v>112</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
       </c>
       <c r="J48" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" t="s">
         <v>113</v>
-      </c>
-      <c r="C49" t="s">
-        <v>114</v>
       </c>
       <c r="D49" t="s">
         <v>17</v>
       </c>
       <c r="J49" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" t="s">
         <v>115</v>
-      </c>
-      <c r="C50" t="s">
-        <v>116</v>
       </c>
       <c r="D50" t="s">
         <v>17</v>
       </c>
       <c r="J50" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" t="s">
         <v>117</v>
-      </c>
-      <c r="C51" t="s">
-        <v>118</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
       </c>
       <c r="J51" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" t="s">
         <v>119</v>
-      </c>
-      <c r="C52" t="s">
-        <v>120</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
       </c>
       <c r="J52" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -4000,35 +4098,35 @@
         <v>34</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B54" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C54" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="B55" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C55" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
@@ -4039,27 +4137,27 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C56" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
       </c>
       <c r="G56" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="B57" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C57" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
@@ -4067,13 +4165,13 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="B58" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="C58" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D58" t="s">
         <v>17</v>
@@ -4084,16 +4182,16 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="C59" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -4106,10 +4204,10 @@
         <v>11</v>
       </c>
       <c r="B61" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -4117,10 +4215,10 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" t="s">
         <v>123</v>
-      </c>
-      <c r="C62" t="s">
-        <v>124</v>
       </c>
       <c r="D62" t="s">
         <v>17</v>
@@ -4128,13 +4226,13 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="B63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" t="s">
         <v>125</v>
-      </c>
-      <c r="C63" t="s">
-        <v>126</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
@@ -4142,13 +4240,13 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
         <v>127</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>128</v>
-      </c>
-      <c r="C64" t="s">
-        <v>129</v>
       </c>
       <c r="D64" t="s">
         <v>17</v>
@@ -4161,13 +4259,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B66" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C66" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D66" t="s">
         <v>17</v>
@@ -4178,21 +4276,21 @@
         <v>11</v>
       </c>
       <c r="B67" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="D68" t="s">
         <v>17</v>
@@ -4200,13 +4298,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B69" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" t="s">
         <v>133</v>
-      </c>
-      <c r="C69" t="s">
-        <v>134</v>
       </c>
       <c r="D69" t="s">
         <v>17</v>
@@ -4224,10 +4322,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C368"/>
+  <dimension ref="A1:N385"/>
   <sheetViews>
-    <sheetView topLeftCell="A338" workbookViewId="0">
-      <selection activeCell="A366" sqref="A366"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4235,11 +4333,12 @@
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="14" max="14" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -4247,4045 +4346,4620 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B38" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B39" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B40" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B42" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B44" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B45" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B46" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B47" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B48" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B49" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B50" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="N51" s="4"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B51" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="N52" s="4"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B52" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B53" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="N54" s="4"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B54" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B55" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="N56" s="4"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B56" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="N57" s="4"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B57" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="N58" s="4"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B58" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="N59" s="4"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B59" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="N60" s="4"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B60" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="N61" s="4"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B61" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="N62" s="4"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B62" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="N63" s="4"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B63" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="N64" s="4"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B64" s="4" t="s">
+      <c r="C65" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="N65" s="4"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B65" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="N66" s="4"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B66" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="N67" s="4"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B67" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="N68" s="4"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B68" s="4" t="s">
+      <c r="C69" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="N69" s="4"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B69" s="4" t="s">
+      <c r="C70" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="N70" s="4"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B70" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="N71" s="4"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B71" s="4" t="s">
+      <c r="C72" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="N72" s="4"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B72" s="4" t="s">
+      <c r="C73" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="N73" s="4"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B73" s="4" t="s">
+      <c r="C74" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="N74" s="4"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B74" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="N75" s="4"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B75" s="4" t="s">
+      <c r="C76" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="N76" s="4"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B76" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="N77" s="4"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B77" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="N78" s="4"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B78" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="N79" s="4"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B79" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="N80" s="4"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B80" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="N81" s="4"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B81" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="N82" s="4"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B82" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="N83" s="4"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B83" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="N84" s="4"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B84" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="N85" s="4"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B85" s="4" t="s">
+      <c r="C86" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="N86" s="4"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B86" s="4" t="s">
+      <c r="C87" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="N87" s="4"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B87" s="4" t="s">
+      <c r="C88" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="N88" s="4"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B88" s="4" t="s">
+      <c r="C89" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="N89" s="4"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B89" s="4" t="s">
+      <c r="C90" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="N90" s="4"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B90" s="4" t="s">
+      <c r="C91" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="N91" s="4"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B91" s="4" t="s">
+      <c r="C92" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="N92" s="4"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B92" s="4" t="s">
+      <c r="C93" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="N93" s="4"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B93" s="4" t="s">
+      <c r="C94" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="N94" s="4"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B94" s="4" t="s">
+      <c r="C95" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="N95" s="4"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B95" s="4" t="s">
+      <c r="C96" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="N96" s="4"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B96" s="4" t="s">
+      <c r="C97" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="N97" s="4"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B97" s="4" t="s">
+      <c r="C98" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="N98" s="4"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B98" s="4" t="s">
+      <c r="C99" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="N99" s="4"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B99" s="4" t="s">
+      <c r="C100" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="N100" s="4"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B100" s="4" t="s">
+      <c r="C101" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="N101" s="4"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B101" s="4" t="s">
+      <c r="C102" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="N102" s="4"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B102" s="4" t="s">
+      <c r="C103" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="N103" s="4"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B103" s="4" t="s">
+      <c r="C104" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="N104" s="4"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B104" s="4" t="s">
+      <c r="C105" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="N105" s="4"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B105" s="4" t="s">
+      <c r="C106" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="N106" s="4"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B106" s="4" t="s">
+      <c r="C107" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="N107" s="4"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B107" s="4" t="s">
+      <c r="C108" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="N108" s="4"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B108" s="4" t="s">
+      <c r="C109" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="N109" s="4"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B109" s="4" t="s">
+      <c r="C110" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="N110" s="4"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B110" s="4" t="s">
+      <c r="C111" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="N111" s="4"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B111" s="4" t="s">
+      <c r="C112" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="N112" s="4"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B112" s="4" t="s">
+      <c r="C113" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="N113" s="4"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B113" s="4" t="s">
+      <c r="C114" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="N114" s="4"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B114" s="4" t="s">
+      <c r="C115" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="N115" s="4"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B115" s="4" t="s">
+      <c r="C116" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="N116" s="4"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B116" s="4" t="s">
+      <c r="C117" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="N117" s="4"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B117" s="4" t="s">
+      <c r="C118" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="N118" s="4"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B118" s="4" t="s">
+      <c r="C119" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="N119" s="4"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B119" s="4" t="s">
+      <c r="C120" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="N120" s="4"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B120" s="4" t="s">
+      <c r="C121" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="N121" s="4"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B121" s="4" t="s">
+      <c r="C122" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="N122" s="4"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B122" s="4" t="s">
+      <c r="C123" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="N123" s="4"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B123" s="4" t="s">
+      <c r="C124" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="N124" s="4"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B124" s="4" t="s">
+      <c r="C125" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="N125" s="4"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B125" s="4" t="s">
+      <c r="C126" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="N126" s="4"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B126" s="4" t="s">
+      <c r="C127" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="N127" s="4"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B127" s="4" t="s">
+      <c r="C128" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="N128" s="4"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B128" s="4" t="s">
+      <c r="C129" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="N129" s="4"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B129" s="4" t="s">
+      <c r="C130" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="N130" s="4"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B130" s="4" t="s">
+      <c r="C131" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="N131" s="4"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B131" s="4" t="s">
+      <c r="C132" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="N132" s="4"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B132" s="4" t="s">
+      <c r="C133" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="N133" s="4"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B133" s="4" t="s">
+      <c r="C134" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="N134" s="4"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B134" s="4" t="s">
+      <c r="C135" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="N135" s="4"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B135" s="4" t="s">
+      <c r="C136" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="N136" s="4"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B136" s="4" t="s">
+      <c r="C137" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="N137" s="4"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B137" s="4" t="s">
+      <c r="C138" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="N138" s="4"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B138" s="4" t="s">
+      <c r="C139" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="N139" s="4"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B139" s="4" t="s">
+      <c r="C140" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="N140" s="4"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B140" s="4" t="s">
+      <c r="C141" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="N141" s="4"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B141" s="4" t="s">
+      <c r="C142" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="N142" s="4"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B142" s="4" t="s">
+      <c r="C143" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="N143" s="4"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B143" s="4" t="s">
+      <c r="C144" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="N144" s="4"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B144" s="4" t="s">
+      <c r="C145" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="N145" s="4"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B145" s="4" t="s">
+      <c r="C146" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="N146" s="4"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B146" s="4" t="s">
+      <c r="C147" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="N147" s="4"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B147" s="4" t="s">
+      <c r="C148" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="N148" s="4"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B148" s="4" t="s">
+      <c r="C149" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="N149" s="4"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B149" s="4" t="s">
+      <c r="C150" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="N150" s="4"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B150" s="4" t="s">
+      <c r="C151" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="N151" s="4"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B151" s="4" t="s">
+      <c r="C152" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="N152" s="4"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B152" s="4" t="s">
+      <c r="C153" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="N153" s="4"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B153" s="4" t="s">
+      <c r="C154" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="N154" s="4"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B154" s="4" t="s">
+      <c r="C155" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="N155" s="4"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B155" s="4" t="s">
+      <c r="C156" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="N156" s="4"/>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B157" s="4" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B156" s="4" t="s">
+      <c r="C157" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="N157" s="4"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B158" s="4" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B157" s="4" t="s">
+      <c r="C158" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="N158" s="4"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B159" s="4" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B158" s="4" t="s">
+      <c r="C159" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="N159" s="4"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B159" s="4" t="s">
+      <c r="C160" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="N160" s="4"/>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B161" s="4" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B160" s="4" t="s">
+      <c r="C161" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="N161" s="4"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B161" s="4" t="s">
+      <c r="C162" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="N162" s="4"/>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B162" s="4" t="s">
+      <c r="C163" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="N163" s="4"/>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B163" s="4" t="s">
+      <c r="C164" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="N164" s="4"/>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B164" s="4" t="s">
+      <c r="C165" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="N165" s="4"/>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B165" s="4" t="s">
+      <c r="C166" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="N166" s="4"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B167" s="4" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B166" s="4" t="s">
+      <c r="C167" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="N167" s="4"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B168" s="4" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B167" s="4" t="s">
+      <c r="C168" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="N168" s="4"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B168" s="4" t="s">
+      <c r="C169" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C168" s="4" t="s">
+      <c r="N169" s="4"/>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A170" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B170" s="4" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B169" s="4" t="s">
+      <c r="C170" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="N170" s="4"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B171" s="4" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B170" s="4" t="s">
+      <c r="C171" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="N171" s="4"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A172" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B172" s="4" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B171" s="4" t="s">
+      <c r="C172" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="N172" s="4"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B173" s="4" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B172" s="4" t="s">
+      <c r="C173" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="C172" s="4" t="s">
+      <c r="N173" s="4"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B174" s="4" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B173" s="4" t="s">
+      <c r="C174" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="N174" s="4"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A175" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B175" s="4" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B174" s="4" t="s">
+      <c r="C175" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="N175" s="4"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B176" s="4" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B175" s="4" t="s">
+      <c r="C176" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="N176" s="4"/>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B177" s="4" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B176" s="4" t="s">
+      <c r="C177" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="N177" s="4"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A178" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B178" s="4" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B177" s="4" t="s">
+      <c r="C178" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="N178" s="4"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A179" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B179" s="4" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B178" s="4" t="s">
+      <c r="C179" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="N179" s="4"/>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A180" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B180" s="4" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B179" s="4" t="s">
+      <c r="C180" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="N180" s="4"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B181" s="4" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B180" s="4" t="s">
+      <c r="C181" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="C180" s="4" t="s">
+      <c r="N181" s="4"/>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B182" s="4" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B181" s="4" t="s">
+      <c r="C182" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="N182" s="4"/>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B183" s="4" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B182" s="4" t="s">
+      <c r="C183" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="N183" s="4"/>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A184" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B184" s="4" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B183" s="4" t="s">
+      <c r="C184" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="N184" s="4"/>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A185" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B185" s="4" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B184" s="4" t="s">
+      <c r="C185" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="N185" s="4"/>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B186" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B185" s="4" t="s">
+      <c r="C186" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="N186" s="4"/>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B187" s="4" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B186" s="4" t="s">
+      <c r="C187" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="C186" s="4" t="s">
+      <c r="N187" s="4"/>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B187" s="4" t="s">
+      <c r="C188" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="C187" s="4" t="s">
+      <c r="N188" s="4"/>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B189" s="4" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B188" s="4" t="s">
+      <c r="C189" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="N189" s="4"/>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B190" s="4" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B189" s="4" t="s">
+      <c r="C190" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="C189" s="4" t="s">
+      <c r="N190" s="4"/>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B191" s="4" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B190" s="4" t="s">
+      <c r="C191" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="C190" s="4" t="s">
+      <c r="N191" s="4"/>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B192" s="4" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B191" s="4" t="s">
+      <c r="C192" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="N192" s="4"/>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B193" s="4" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B192" s="4" t="s">
+      <c r="C193" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="C192" s="4" t="s">
+      <c r="N193" s="4"/>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B194" s="4" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B193" s="4" t="s">
+      <c r="C194" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="C193" s="4" t="s">
+      <c r="N194" s="4"/>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B195" s="4" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B194" s="4" t="s">
+      <c r="C195" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="N195" s="4"/>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B196" s="4" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B195" s="4" t="s">
+      <c r="C196" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="C195" s="4" t="s">
+      <c r="N196" s="4"/>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197" s="4" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B196" s="4" t="s">
+      <c r="C197" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="C196" s="4" t="s">
+      <c r="N197" s="4"/>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A198" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B198" s="4" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B197" s="4" t="s">
+      <c r="C198" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="C197" s="4" t="s">
+      <c r="N198" s="4"/>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A199" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199" s="4" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B198" s="4" t="s">
+      <c r="C199" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="C198" s="4" t="s">
+      <c r="N199" s="4"/>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A200" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200" s="4" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B199" s="4" t="s">
+      <c r="C200" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="N200" s="4"/>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A201" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" s="4" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B200" s="4" t="s">
+      <c r="C201" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="C200" s="4" t="s">
+      <c r="N201" s="4"/>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A202" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B202" s="4" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B201" s="4" t="s">
+      <c r="C202" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="C201" s="4" t="s">
+      <c r="N202" s="4"/>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A203" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B203" s="4" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B202" s="4" t="s">
+      <c r="C203" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="C202" s="4" t="s">
+      <c r="N203" s="4"/>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A204" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B204" s="4" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B203" s="4" t="s">
+      <c r="C204" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="C203" s="4" t="s">
+      <c r="N204" s="4"/>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A205" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B205" s="4" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B204" s="4" t="s">
+      <c r="C205" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="N205" s="4"/>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A206" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B206" s="4" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B205" s="4" t="s">
+      <c r="C206" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="N206" s="4"/>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A207" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B207" s="4" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B206" s="4" t="s">
+      <c r="C207" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C206" s="4" t="s">
+      <c r="N207" s="4"/>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A208" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B208" s="4" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B207" s="4" t="s">
+      <c r="C208" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="C207" s="4" t="s">
+      <c r="N208" s="4"/>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A209" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B209" s="4" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B208" s="4" t="s">
+      <c r="C209" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="C208" s="4" t="s">
+      <c r="N209" s="4"/>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A210" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B210" s="4" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B209" s="4" t="s">
+      <c r="C210" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="C209" s="4" t="s">
+      <c r="N210" s="4"/>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A211" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B211" s="4" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B210" s="4" t="s">
+      <c r="C211" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="C210" s="4" t="s">
+      <c r="N211" s="4"/>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B212" s="4" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B211" s="4" t="s">
+      <c r="C212" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C211" s="4" t="s">
+      <c r="N212" s="4"/>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A213" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B213" s="4" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B212" s="4" t="s">
+      <c r="C213" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="C212" s="4" t="s">
+      <c r="N213" s="4"/>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A214" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B214" s="4" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B213" s="4" t="s">
+      <c r="C214" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="C213" s="4" t="s">
+      <c r="N214" s="4"/>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B215" s="4" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B214" s="4" t="s">
+      <c r="C215" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="C214" s="4" t="s">
+      <c r="N215" s="4"/>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A216" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B216" s="4" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B215" s="4" t="s">
+      <c r="C216" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C215" s="4" t="s">
+      <c r="N216" s="4"/>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A217" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B217" s="4" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B216" s="4" t="s">
+      <c r="C217" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="C216" s="4" t="s">
+      <c r="N217" s="4"/>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A218" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B218" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B217" s="4" t="s">
+      <c r="C218" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="C217" s="4" t="s">
+      <c r="N218" s="4"/>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A219" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B219" s="4" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B218" s="4" t="s">
+      <c r="C219" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="C218" s="4" t="s">
+      <c r="N219" s="4"/>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A220" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B220" s="4" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B219" s="4" t="s">
+      <c r="C220" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="C219" s="4" t="s">
+      <c r="N220" s="4"/>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A221" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B221" s="4" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B220" s="4" t="s">
+      <c r="C221" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="C220" s="4" t="s">
+      <c r="N221" s="4"/>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A222" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B222" s="4" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B221" s="4" t="s">
+      <c r="C222" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="C221" s="4" t="s">
+      <c r="N222" s="4"/>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A223" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B223" s="4" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B222" s="4" t="s">
+      <c r="C223" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="C222" s="4" t="s">
+      <c r="N223" s="4"/>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A224" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B224" s="4" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B223" s="4" t="s">
+      <c r="C224" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="C223" s="4" t="s">
+      <c r="N224" s="4"/>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A225" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B225" s="4" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B224" s="4" t="s">
+      <c r="C225" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="C224" s="4" t="s">
+      <c r="N225" s="4"/>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A226" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B226" s="4" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B225" s="4" t="s">
+      <c r="C226" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="C225" s="4" t="s">
+      <c r="N226" s="4"/>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A227" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B227" s="4" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B226" s="4" t="s">
+      <c r="C227" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="C226" s="4" t="s">
+      <c r="N227" s="4"/>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A228" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B228" s="4" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B227" s="4" t="s">
+      <c r="C228" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="C227" s="4" t="s">
+      <c r="N228" s="4"/>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A229" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B229" s="4" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B228" s="4" t="s">
+      <c r="C229" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="C228" s="4" t="s">
+      <c r="N229" s="4"/>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A230" s="4" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B229" s="4" t="s">
+      <c r="B230" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="C229" s="4" t="s">
+      <c r="C230" s="4" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="4" t="s">
+      <c r="N230" s="4"/>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A231" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B231" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="C231" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="C230" s="4" t="s">
+      <c r="N231" s="4"/>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A232" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B232" s="4" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="B231" s="4" t="s">
+      <c r="C232" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="C231" s="4" t="s">
+      <c r="N232" s="4"/>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A233" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B233" s="4" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="B232" s="4" t="s">
+      <c r="C233" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="C232" s="4" t="s">
+      <c r="N233" s="4"/>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A234" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B234" s="4" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="B233" s="4" t="s">
+      <c r="C234" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="C233" s="4" t="s">
+      <c r="N234" s="4"/>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A235" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B235" s="4" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="B234" s="4" t="s">
+      <c r="C235" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="C234" s="4" t="s">
+      <c r="N235" s="4"/>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A236" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B236" s="4" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="B235" s="4" t="s">
+      <c r="C236" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="C235" s="4" t="s">
+      <c r="N236" s="4"/>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A237" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B237" s="4" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="B236" s="4" t="s">
+      <c r="C237" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="C236" s="4" t="s">
+      <c r="N237" s="4"/>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A238" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B238" s="4" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="B237" s="4" t="s">
+      <c r="C238" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="C237" s="4" t="s">
+      <c r="N238" s="4"/>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A239" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B239" s="4" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="B238" s="4" t="s">
+      <c r="C239" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="C238" s="4" t="s">
+      <c r="N239" s="4"/>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A240" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B240" s="4" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="B239" s="4" t="s">
+      <c r="C240" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="C239" s="4" t="s">
+      <c r="N240" s="4"/>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A241" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B241" s="4" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="B240" s="4" t="s">
+      <c r="C241" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="C240" s="4" t="s">
+      <c r="N241" s="4"/>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A242" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B242" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="B241" s="4" t="s">
+      <c r="C242" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="C241" s="4" t="s">
+      <c r="N242" s="4"/>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A243" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B243" s="4" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="B242" s="4" t="s">
+      <c r="C243" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="C242" s="4" t="s">
+      <c r="N243" s="4"/>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A244" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B244" s="4" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="B243" s="4" t="s">
+      <c r="C244" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="C243" s="4" t="s">
+      <c r="N244" s="4"/>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A245" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B245" s="4" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="B244" s="4" t="s">
+      <c r="C245" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="C244" s="4" t="s">
+      <c r="N245" s="4"/>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A246" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B246" s="4" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="B245" s="4" t="s">
+      <c r="C246" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="C245" s="4" t="s">
+      <c r="N246" s="4"/>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A247" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B247" s="4" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="B246" s="4" t="s">
+      <c r="C247" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="C246" s="4" t="s">
+      <c r="N247" s="4"/>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A248" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B248" s="4" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="B247" s="4" t="s">
+      <c r="C248" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="C247" s="4" t="s">
+      <c r="N248" s="4"/>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A249" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B249" s="4" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="B248" s="4" t="s">
+      <c r="C249" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="C248" s="4" t="s">
+      <c r="N249" s="4"/>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A250" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B250" s="4" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="B249" s="4" t="s">
+      <c r="C250" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="C249" s="4" t="s">
+      <c r="N250" s="4"/>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A251" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B251" s="4" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="B250" s="4" t="s">
+      <c r="C251" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="C250" s="4" t="s">
+      <c r="N251" s="4"/>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A252" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C252" s="4" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="B251" s="4" t="s">
+      <c r="N252" s="4"/>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A253" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="C251" s="4" t="s">
+      <c r="B253" s="4" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="B252" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C252" s="4" t="s">
+      <c r="C253" s="4" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="4" t="s">
+      <c r="N253" s="4"/>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A254" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="B254" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="C254" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="C253" s="4" t="s">
+      <c r="N254" s="4"/>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A255" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="B255" s="4" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254" s="4" t="s">
+      <c r="C255" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N255" s="4"/>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A256" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="N256" s="4"/>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A257" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="N257" s="4"/>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A258" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="N258" s="4"/>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A259" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="N259" s="4"/>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A260" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="N260" s="4"/>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A261" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="N261" s="4"/>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A262" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="N262" s="4"/>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A263" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="N263" s="4"/>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A264" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="N264" s="4"/>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A265" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="N265" s="4"/>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A266" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="N266" s="4"/>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A267" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="N267" s="4"/>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A268" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="N268" s="4"/>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A269" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="N269" s="4"/>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A270" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="N270" s="4"/>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A271" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="N271" s="4"/>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A272" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="N272" s="4"/>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A273" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="N273" s="4"/>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A274" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="N274" s="4"/>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A275" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="N275" s="4"/>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A276" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="N276" s="4"/>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A277" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="N277" s="4"/>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A278" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="N278" s="4"/>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A279" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="N279" s="4"/>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A280" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="N280" s="4"/>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A281" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="N281" s="4"/>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A282" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="N282" s="4"/>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A283" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="N283" s="4"/>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A284" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="N284" s="4"/>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A285" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="N285" s="4"/>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A286" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="N286" s="4"/>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A287" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="N287" s="4"/>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A288" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="N288" s="4"/>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A289" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="N289" s="4"/>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A290" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="N290" s="4"/>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A291" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="N291" s="4"/>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A292" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="N292" s="4"/>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A293" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="N293" s="4"/>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A294" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="N294" s="4"/>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A295" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="N295" s="4"/>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A296" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="N296" s="4"/>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A297" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="N297" s="4"/>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A298" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="N298" s="4"/>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A299" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="N299" s="4"/>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A300" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="N300" s="4"/>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A301" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B301" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="B254" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="C254" s="4" t="s">
+      <c r="C301" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="N301" s="4"/>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A302" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="N302" s="4"/>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A303" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B303" s="4" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255" s="4" t="s">
+      <c r="C303" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="N303" s="4"/>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A304" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="N304" s="4"/>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A305" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="B305" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="B255" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" s="4" t="s">
+      <c r="C305" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="N305" s="4"/>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A306" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="N306" s="4"/>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A307" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="N307" s="4"/>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A308" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="N308" s="4"/>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A309" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="N309" s="4"/>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A310" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="N310" s="4"/>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A311" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="N311" s="4"/>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A312" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="N312" s="4"/>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A313" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="N313" s="4"/>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A314" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="N314" s="4"/>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A315" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="N315" s="4"/>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A316" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="N316" s="4"/>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A317" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="N317" s="4"/>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A318" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="N318" s="4"/>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A319" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="N319" s="4"/>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A320" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="N320" s="4"/>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A321" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="N321" s="4"/>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A322" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="N322" s="4"/>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A323" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="N323" s="4"/>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A324" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="N324" s="4"/>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A325" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="N325" s="4"/>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A326" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="N326" s="4"/>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A327" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="N327" s="4"/>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A328" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="N328" s="4"/>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A329" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="C329" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="N329" s="4"/>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A330" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="N330" s="4"/>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A331" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="N331" s="4"/>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A332" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="C332" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="N332" s="4"/>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A333" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="C333" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="N333" s="4"/>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A334" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="N334" s="4"/>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A335" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="C335" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="N335" s="4"/>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A336" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="C336" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="N336" s="4"/>
+    </row>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A337" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="N337" s="4"/>
+    </row>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A338" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="N338" s="4"/>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A339" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="N339" s="4"/>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A340" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="N340" s="4"/>
+    </row>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A341" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="C341" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="N341" s="4"/>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A342" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="N342" s="4"/>
+    </row>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A343" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="C343" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="N343" s="4"/>
+    </row>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A344" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="B344" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="B256" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="B257" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="C257" s="4" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="B258" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="B259" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="C259" s="4" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="B260" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="C260" s="4" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="B261" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="C261" s="4" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="B262" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="C262" s="4" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="B263" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="C263" s="4" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="B264" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="C264" s="4" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="B265" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C265" s="4" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="B266" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="B267" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="C267" s="4" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="B268" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="C268" s="4" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="B269" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="C269" s="4" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="B270" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="C270" s="4" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="B271" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="B272" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="C272" s="4" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="B273" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="C273" s="4" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="B274" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="B275" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="B276" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="C276" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="B277" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="C277" s="4" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="B278" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="C278" s="4" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="B279" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="C279" s="4" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="B280" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="C280" s="4" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="B281" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="C281" s="4" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="B282" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C282" s="4" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A283" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="B283" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="C283" s="4" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="B284" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="C284" s="4" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="B285" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="C285" s="4" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A286" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="B286" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="C286" s="4" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="B287" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="C287" s="4" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="B288" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="C288" s="4" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A289" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="B289" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="C289" s="4" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A290" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="B290" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="C290" s="4" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A291" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B291" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="C291" s="4" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A292" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B292" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="C292" s="4" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A293" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B293" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A294" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B294" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="C294" s="4" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A295" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B295" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="C295" s="4" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A296" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B296" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A297" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B297" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="C297" s="4" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A298" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B298" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="C298" s="4" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A299" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B299" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="C299" s="4" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A300" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B300" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="C300" s="4" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A301" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B301" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="C301" s="4" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A302" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B302" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="C302" s="4" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A303" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B303" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="C303" s="4" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A304" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B304" s="4" t="s">
-        <v>740</v>
-      </c>
-      <c r="C304" s="4" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B305" s="4" t="s">
-        <v>742</v>
-      </c>
-      <c r="C305" s="4" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A306" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B306" s="4" t="s">
-        <v>744</v>
-      </c>
-      <c r="C306" s="4" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A307" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B307" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="C307" s="4" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A308" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B308" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="C308" s="4" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A309" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B309" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="C309" s="4" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A310" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B310" s="4" t="s">
-        <v>752</v>
-      </c>
-      <c r="C310" s="4" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A311" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B311" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="C311" s="4" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A312" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B312" s="4" t="s">
-        <v>756</v>
-      </c>
-      <c r="C312" s="4" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A313" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B313" s="4" t="s">
-        <v>758</v>
-      </c>
-      <c r="C313" s="4" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A314" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B314" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="C314" s="4" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A315" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B315" s="4" t="s">
-        <v>762</v>
-      </c>
-      <c r="C315" s="4" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A316" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B316" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="C316" s="4" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A317" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B317" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="C317" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A318" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B318" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="C318" s="4" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A319" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B319" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="C319" s="4" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A320" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B320" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="C320" s="4" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A321" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B321" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="C321" s="4" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A322" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B322" s="4" t="s">
-        <v>776</v>
-      </c>
-      <c r="C322" s="4" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A323" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B323" s="4" t="s">
+      <c r="C344" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="N344" s="4"/>
+    </row>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A345" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="C323" s="4" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A324" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B324" s="4" t="s">
-        <v>780</v>
-      </c>
-      <c r="C324" s="4" t="s">
+      <c r="B345" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C345" s="4" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A325" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="B325" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C325" s="4" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A326" s="4" t="s">
+      <c r="N345" s="4"/>
+    </row>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A346" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="B346" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="B326" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="C326" s="4" t="s">
+      <c r="C346" s="4" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A327" s="4" t="s">
-        <v>782</v>
-      </c>
-      <c r="B327" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="C327" s="4" t="s">
+      <c r="N346" s="4"/>
+    </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A347" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C347" s="4" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A328" s="4" t="s">
-        <v>782</v>
-      </c>
-      <c r="B328" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="C328" s="4" t="s">
+      <c r="N347" s="4"/>
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A348" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C348" s="4" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A329" s="4" t="s">
-        <v>782</v>
-      </c>
-      <c r="B329" s="4" t="s">
+      <c r="N348" s="4"/>
+    </row>
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A349" s="4" t="s">
         <v>786</v>
       </c>
-      <c r="C329" s="4" t="s">
+      <c r="B349" s="4" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A330" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="B330" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C330" s="4" t="s">
+      <c r="C349" s="4" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A331" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="B331" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C331" s="4" t="s">
+      <c r="N349" s="4"/>
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A350" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="B350" s="4" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A332" s="4" t="s">
+      <c r="C350" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="B332" s="4" t="s">
+      <c r="N350" s="4"/>
+    </row>
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A351" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="B351" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="C332" s="4" t="s">
+      <c r="C351" s="4" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A333" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="B333" s="4" t="s">
-        <v>793</v>
-      </c>
-      <c r="C333" s="4" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A334" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="B334" s="4" t="s">
-        <v>795</v>
-      </c>
-      <c r="C334" s="4" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A335" s="11" t="s">
+      <c r="N351" s="4"/>
+    </row>
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A352" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="B352" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="C352" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="N352" s="11"/>
+    </row>
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A353" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="B353" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="C353" s="11" t="s">
         <v>822</v>
       </c>
-      <c r="B335" s="11" t="s">
+      <c r="N353" s="11"/>
+    </row>
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A354" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="B354" s="11" t="s">
         <v>823</v>
       </c>
-      <c r="C335" s="11" t="s">
+      <c r="C354" s="11" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A336" s="11" t="s">
-        <v>822</v>
-      </c>
-      <c r="B336" s="11" t="s">
+      <c r="N354" s="11"/>
+    </row>
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A355" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="B355" s="11" t="s">
         <v>825</v>
       </c>
-      <c r="C336" s="11" t="s">
+      <c r="C355" s="11" t="s">
+        <v>889</v>
+      </c>
+      <c r="N355" s="11"/>
+    </row>
+    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A356" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="B356" s="11" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A337" s="11" t="s">
-        <v>822</v>
-      </c>
-      <c r="B337" s="11" t="s">
+      <c r="C356" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="C337" s="11" t="s">
+      <c r="N356" s="11"/>
+    </row>
+    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A357" s="11" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A338" s="11" t="s">
-        <v>822</v>
-      </c>
-      <c r="B338" s="11" t="s">
+      <c r="B357" s="11" t="s">
         <v>829</v>
       </c>
-      <c r="C338" s="11" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A339" s="11" t="s">
-        <v>822</v>
-      </c>
-      <c r="B339" s="11" t="s">
+      <c r="C357" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="C339" s="11" t="s">
+      <c r="N357" s="11"/>
+    </row>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A358" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="B358" s="11" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A340" s="11" t="s">
+      <c r="C358" s="11" t="s">
         <v>832</v>
       </c>
-      <c r="B340" s="11" t="s">
+      <c r="N358" s="11"/>
+    </row>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A359" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="B359" s="11" t="s">
         <v>833</v>
       </c>
-      <c r="C340" s="11" t="s">
+      <c r="C359" s="11" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A341" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="B341" s="11" t="s">
+      <c r="N359" s="11"/>
+    </row>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A360" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="B360" s="11" t="s">
         <v>835</v>
       </c>
-      <c r="C341" s="11" t="s">
+      <c r="C360" s="11" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A342" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="B342" s="11" t="s">
+      <c r="N360" s="11"/>
+    </row>
+    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A361" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="B361" s="11" t="s">
         <v>837</v>
       </c>
-      <c r="C342" s="11" t="s">
+      <c r="C361" s="11" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A343" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="B343" s="11" t="s">
+      <c r="N361" s="11"/>
+    </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A362" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="B362" s="11" t="s">
         <v>839</v>
       </c>
-      <c r="C343" s="11" t="s">
+      <c r="C362" s="11" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A344" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="B344" s="11" t="s">
+      <c r="N362" s="11"/>
+    </row>
+    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A363" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="B363" s="11" t="s">
         <v>841</v>
       </c>
-      <c r="C344" s="11" t="s">
+      <c r="C363" s="11" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A345" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="B345" s="11" t="s">
+      <c r="N363" s="11"/>
+    </row>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A364" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="B364" s="11" t="s">
         <v>843</v>
       </c>
-      <c r="C345" s="11" t="s">
+      <c r="C364" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="N364" s="11"/>
+    </row>
+    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A365" s="11" t="s">
         <v>844</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A346" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="B346" s="11" t="s">
-        <v>845</v>
-      </c>
-      <c r="C346" s="11" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A347" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="B347" s="11" t="s">
-        <v>847</v>
-      </c>
-      <c r="C347" s="11" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A348" s="11" t="s">
-        <v>848</v>
-      </c>
-      <c r="B348" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C348" s="11" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A349" s="11" t="s">
-        <v>848</v>
-      </c>
-      <c r="B349" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C349" s="11" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A350" s="11" t="s">
-        <v>848</v>
-      </c>
-      <c r="B350" s="11" t="s">
-        <v>849</v>
-      </c>
-      <c r="C350" s="11" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A351" s="11" t="s">
-        <v>850</v>
-      </c>
-      <c r="B351" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C351" s="11" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A352" s="11" t="s">
-        <v>850</v>
-      </c>
-      <c r="B352" s="11" t="s">
-        <v>852</v>
-      </c>
-      <c r="C352" s="11" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A353" s="11" t="s">
-        <v>850</v>
-      </c>
-      <c r="B353" s="11" t="s">
-        <v>660</v>
-      </c>
-      <c r="C353" s="11" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A354" s="11" t="s">
-        <v>850</v>
-      </c>
-      <c r="B354" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="C354" s="11" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A355" s="11" t="s">
-        <v>857</v>
-      </c>
-      <c r="B355" s="11" t="s">
-        <v>858</v>
-      </c>
-      <c r="C355" s="11" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A356" s="11" t="s">
-        <v>857</v>
-      </c>
-      <c r="B356" s="11" t="s">
-        <v>860</v>
-      </c>
-      <c r="C356" s="11" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A357" s="11" t="s">
-        <v>857</v>
-      </c>
-      <c r="B357" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="C357" s="11" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A358" s="11" t="s">
-        <v>857</v>
-      </c>
-      <c r="B358" s="11" t="s">
-        <v>864</v>
-      </c>
-      <c r="C358" s="11" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A359" s="11" t="s">
-        <v>857</v>
-      </c>
-      <c r="B359" s="11" t="s">
-        <v>866</v>
-      </c>
-      <c r="C359" s="11" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A360" s="11" t="s">
-        <v>857</v>
-      </c>
-      <c r="B360" s="11" t="s">
-        <v>868</v>
-      </c>
-      <c r="C360" s="11" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A361" s="11" t="s">
-        <v>857</v>
-      </c>
-      <c r="B361" s="11" t="s">
-        <v>870</v>
-      </c>
-      <c r="C361" s="11" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A362" s="11" t="s">
-        <v>857</v>
-      </c>
-      <c r="B362" s="11" t="s">
-        <v>872</v>
-      </c>
-      <c r="C362" s="11" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A363" s="11" t="s">
-        <v>857</v>
-      </c>
-      <c r="B363" s="11" t="s">
-        <v>874</v>
-      </c>
-      <c r="C363" s="11" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A364" s="11" t="s">
-        <v>857</v>
-      </c>
-      <c r="B364" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C364" s="11" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A365" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="B365" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C365" s="11" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A366" t="s">
-        <v>907</v>
+        <v>784</v>
+      </c>
+      <c r="N365" s="11"/>
+    </row>
+    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A366" s="11" t="s">
+        <v>844</v>
       </c>
       <c r="B366" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C366" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="N366" s="11"/>
+    </row>
+    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A367" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="B367" s="11" t="s">
+        <v>845</v>
+      </c>
+      <c r="C367" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="N367" s="11"/>
+    </row>
+    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A368" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="B368" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C368" s="11" t="s">
+        <v>847</v>
+      </c>
+      <c r="N368" s="11"/>
+    </row>
+    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A369" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="B369" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="C369" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="N369" s="11"/>
+    </row>
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A370" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="B370" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="C370" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="N370" s="11"/>
+    </row>
+    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A371" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="B371" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="C371" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="N371" s="11"/>
+    </row>
+    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A372" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="B372" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="C372" s="11" t="s">
+        <v>855</v>
+      </c>
+      <c r="N372" s="11"/>
+    </row>
+    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A373" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="B373" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="C373" s="11" t="s">
+        <v>857</v>
+      </c>
+      <c r="N373" s="11"/>
+    </row>
+    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A374" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="B374" s="11" t="s">
+        <v>858</v>
+      </c>
+      <c r="C374" s="11" t="s">
+        <v>859</v>
+      </c>
+      <c r="N374" s="11"/>
+    </row>
+    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A375" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="B375" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="C375" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="N375" s="11"/>
+    </row>
+    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A376" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="B376" s="11" t="s">
+        <v>862</v>
+      </c>
+      <c r="C376" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="N376" s="11"/>
+    </row>
+    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A377" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="B377" s="11" t="s">
+        <v>864</v>
+      </c>
+      <c r="C377" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="N377" s="11"/>
+    </row>
+    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A378" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="B378" s="11" t="s">
+        <v>866</v>
+      </c>
+      <c r="C378" s="11" t="s">
+        <v>867</v>
+      </c>
+      <c r="N378" s="11"/>
+    </row>
+    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A379" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="B379" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="C379" s="11" t="s">
+        <v>869</v>
+      </c>
+      <c r="N379" s="11"/>
+    </row>
+    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A380" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="B380" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="C380" s="11" t="s">
+        <v>871</v>
+      </c>
+      <c r="N380" s="11"/>
+    </row>
+    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A381" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="B381" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C381" s="11" t="s">
+        <v>872</v>
+      </c>
+      <c r="N381" s="11"/>
+    </row>
+    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A382" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C366" s="11" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
-        <v>907</v>
-      </c>
-      <c r="B367" s="11" t="s">
+      <c r="B382" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C382" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="N382" s="11"/>
+    </row>
+    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>903</v>
+      </c>
+      <c r="B383" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C383" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="N383" s="11"/>
+    </row>
+    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>903</v>
+      </c>
+      <c r="B384" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C367" s="11" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A368" t="s">
-        <v>907</v>
-      </c>
-      <c r="B368" s="11" t="s">
-        <v>905</v>
-      </c>
-      <c r="C368" s="11" t="s">
-        <v>906</v>
-      </c>
+      <c r="C384" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="N384" s="11"/>
+    </row>
+    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>903</v>
+      </c>
+      <c r="B385" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="C385" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="N385" s="11"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -8295,7 +8969,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8307,24 +8981,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C2" s="4">
-        <v>20250701</v>
+        <v>20250708</v>
       </c>
     </row>
   </sheetData>

--- a/forms/ds4owd_precourse_survey.xlsx
+++ b/forms/ds4owd_precourse_survey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwalder/Documents/gitrepos/pre-course-survey/forms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lschoebitz/Documents/gitrepos/context-ds4owd/gh-org-ds4owd-dev/pre-course-survey/forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517402FC-DEC9-AC49-A27E-81D1385D50F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7BF69A-1CA0-1C43-81C2-A48380B892EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="940">
   <si>
     <t>type</t>
   </si>
@@ -408,9 +408,6 @@
     <t>mentorship_interest</t>
   </si>
   <si>
-    <t>We are launching a mentorship programme that brings together participants with different levels of experience, so they can support and learn from each other in small groups. Are you interested in joining this mentorship programme?</t>
-  </si>
-  <si>
     <t>agreements</t>
   </si>
   <si>
@@ -2014,9 +2011,6 @@
   </si>
   <si>
     <t>database</t>
-  </si>
-  <si>
-    <t>Relational database</t>
   </si>
   <si>
     <t>Don't know</t>
@@ -2855,6 +2849,18 @@
   </si>
   <si>
     <t>helix</t>
+  </si>
+  <si>
+    <t>Relational / non-relational database</t>
+  </si>
+  <si>
+    <t>llm_coding</t>
+  </si>
+  <si>
+    <t>Code assistance that is non-agentic (i.e. LLM provides a response that is copied into a script manually)</t>
+  </si>
+  <si>
+    <t>We are launching a mentorship programme that brings together participants with different levels of experience, so they can support and learn from each other in small groups. We will match mentors and mentees after module 2 and the programme will run through the duration of the course. Are you interested in joining this mentorship programme?</t>
   </si>
 </sst>
 </file>
@@ -3287,11 +3293,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView zoomScale="109" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3343,10 +3349,10 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3452,19 +3458,19 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>801</v>
+      </c>
+      <c r="B9" t="s">
+        <v>802</v>
+      </c>
+      <c r="C9" t="s">
         <v>803</v>
-      </c>
-      <c r="B9" t="s">
-        <v>804</v>
-      </c>
-      <c r="C9" t="s">
-        <v>805</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3472,50 +3478,50 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C10" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>806</v>
+      </c>
+      <c r="B11" t="s">
+        <v>807</v>
+      </c>
+      <c r="C11" t="s">
         <v>808</v>
-      </c>
-      <c r="B11" t="s">
-        <v>809</v>
-      </c>
-      <c r="C11" t="s">
-        <v>810</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>809</v>
+      </c>
+      <c r="B12" t="s">
+        <v>810</v>
+      </c>
+      <c r="C12" t="s">
         <v>811</v>
-      </c>
-      <c r="B12" t="s">
-        <v>812</v>
-      </c>
-      <c r="C12" t="s">
-        <v>813</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3523,16 +3529,16 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C13" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3549,7 +3555,7 @@
         <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3604,7 +3610,7 @@
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -3813,10 +3819,10 @@
         <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="I35" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -3889,10 +3895,10 @@
         <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="I40" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -3937,10 +3943,10 @@
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="I43" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -3948,13 +3954,13 @@
         <v>11</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>102</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -3971,7 +3977,7 @@
         <v>17</v>
       </c>
       <c r="J45" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -3988,7 +3994,7 @@
         <v>17</v>
       </c>
       <c r="J46" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -4005,7 +4011,7 @@
         <v>17</v>
       </c>
       <c r="J47" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -4022,7 +4028,7 @@
         <v>17</v>
       </c>
       <c r="J48" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -4039,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="J49" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -4056,7 +4062,7 @@
         <v>17</v>
       </c>
       <c r="J50" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -4073,7 +4079,7 @@
         <v>17</v>
       </c>
       <c r="J51" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -4081,97 +4087,100 @@
         <v>103</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>937</v>
       </c>
       <c r="C52" t="s">
-        <v>119</v>
+        <v>938</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
       </c>
       <c r="J52" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>873</v>
-      </c>
-      <c r="B54" t="s">
-        <v>874</v>
-      </c>
-      <c r="C54" t="s">
-        <v>875</v>
-      </c>
-      <c r="D54" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" t="s">
-        <v>890</v>
+      <c r="B54" s="12" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="B55" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="C55" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
       </c>
+      <c r="F55" t="s">
+        <v>888</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>874</v>
       </c>
       <c r="B56" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C56" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
       </c>
-      <c r="G56" t="s">
-        <v>881</v>
-      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>802</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="C57" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
       </c>
+      <c r="G57" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B58" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="C58" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D58" t="s">
         <v>17</v>
@@ -4179,60 +4188,60 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>800</v>
       </c>
       <c r="B59" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C59" t="s">
-        <v>900</v>
+        <v>883</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
       </c>
-      <c r="G59" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>884</v>
+      </c>
+      <c r="C60" t="s">
+        <v>898</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
+    <row r="62" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B62" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C62" s="9" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>14</v>
-      </c>
-      <c r="B62" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62" t="s">
-        <v>123</v>
-      </c>
-      <c r="D62" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>802</v>
+        <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
@@ -4240,78 +4249,92 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>800</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D64" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" t="s">
+        <v>939</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>904</v>
-      </c>
-      <c r="B66" t="s">
-        <v>891</v>
-      </c>
-      <c r="C66" t="s">
-        <v>892</v>
-      </c>
-      <c r="D66" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>902</v>
+      </c>
+      <c r="B67" t="s">
+        <v>889</v>
+      </c>
+      <c r="C67" t="s">
+        <v>890</v>
+      </c>
+      <c r="D67" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="10" t="s">
+    <row r="68" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B68" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>899</v>
-      </c>
-      <c r="B68" t="s">
-        <v>131</v>
-      </c>
-      <c r="C68" t="s">
-        <v>893</v>
-      </c>
-      <c r="D68" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C69" t="s">
-        <v>133</v>
+        <v>891</v>
       </c>
       <c r="D69" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="10" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>897</v>
+      </c>
+      <c r="B70" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4324,8 +4347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F286" sqref="F286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4338,7 +4361,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -4350,4561 +4373,4561 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="N21" s="4"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="N25" s="4"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="N26" s="4"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="N27" s="4"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="N28" s="4"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N29" s="4"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="N30" s="4"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="N31" s="4"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="N32" s="4"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="N33" s="4"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="N34" s="4"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="N35" s="4"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="N36" s="4"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="N37" s="4"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="N38" s="4"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="N39" s="4"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="N40" s="4"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="N41" s="4"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="N42" s="4"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="N43" s="4"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="N44" s="4"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="N45" s="4"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="N46" s="4"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="N47" s="4"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>230</v>
       </c>
       <c r="N48" s="4"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="N49" s="4"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="N50" s="4"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="N51" s="4"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>238</v>
       </c>
       <c r="N52" s="4"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>240</v>
       </c>
       <c r="N53" s="4"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>242</v>
       </c>
       <c r="N54" s="4"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="N55" s="4"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="N56" s="4"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="N57" s="4"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="N58" s="4"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>252</v>
       </c>
       <c r="N59" s="4"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>254</v>
       </c>
       <c r="N60" s="4"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>256</v>
       </c>
       <c r="N61" s="4"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="N62" s="4"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="N63" s="4"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="N64" s="4"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="N65" s="4"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>266</v>
       </c>
       <c r="N66" s="4"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="N67" s="4"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>270</v>
       </c>
       <c r="N68" s="4"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="N69" s="4"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>274</v>
       </c>
       <c r="N70" s="4"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="N71" s="4"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>278</v>
       </c>
       <c r="N72" s="4"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="N73" s="4"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="N74" s="4"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="N75" s="4"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>286</v>
       </c>
       <c r="N76" s="4"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>288</v>
       </c>
       <c r="N77" s="4"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="N78" s="4"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="N79" s="4"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="N80" s="4"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="N81" s="4"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>298</v>
       </c>
       <c r="N82" s="4"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>300</v>
       </c>
       <c r="N83" s="4"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="N84" s="4"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="N85" s="4"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>306</v>
       </c>
       <c r="N86" s="4"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>308</v>
       </c>
       <c r="N87" s="4"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="N88" s="4"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>312</v>
       </c>
       <c r="N89" s="4"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>314</v>
       </c>
       <c r="N90" s="4"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>316</v>
       </c>
       <c r="N91" s="4"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="N92" s="4"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>320</v>
       </c>
       <c r="N93" s="4"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>322</v>
       </c>
       <c r="N94" s="4"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>324</v>
       </c>
       <c r="N95" s="4"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>326</v>
       </c>
       <c r="N96" s="4"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>328</v>
       </c>
       <c r="N97" s="4"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>330</v>
       </c>
       <c r="N98" s="4"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>332</v>
       </c>
       <c r="N99" s="4"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>334</v>
       </c>
       <c r="N100" s="4"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>335</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>336</v>
       </c>
       <c r="N101" s="4"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B102" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>338</v>
       </c>
       <c r="N102" s="4"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B103" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>340</v>
       </c>
       <c r="N103" s="4"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B104" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>342</v>
       </c>
       <c r="N104" s="4"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B105" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>344</v>
       </c>
       <c r="N105" s="4"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B106" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>346</v>
       </c>
       <c r="N106" s="4"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B107" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>348</v>
       </c>
       <c r="N107" s="4"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B108" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="N108" s="4"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B109" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>352</v>
       </c>
       <c r="N109" s="4"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B110" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>354</v>
       </c>
       <c r="N110" s="4"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B111" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>356</v>
       </c>
       <c r="N111" s="4"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B112" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>357</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>358</v>
       </c>
       <c r="N112" s="4"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B113" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="N113" s="4"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B114" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>362</v>
       </c>
       <c r="N114" s="4"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B115" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>364</v>
       </c>
       <c r="N115" s="4"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>366</v>
       </c>
       <c r="N116" s="4"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B117" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>368</v>
       </c>
       <c r="N117" s="4"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B118" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>370</v>
       </c>
       <c r="N118" s="4"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B119" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="N119" s="4"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B120" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>374</v>
       </c>
       <c r="N120" s="4"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B121" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>376</v>
       </c>
       <c r="N121" s="4"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B122" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>377</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>378</v>
       </c>
       <c r="N122" s="4"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B123" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C123" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>380</v>
       </c>
       <c r="N123" s="4"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B124" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>382</v>
       </c>
       <c r="N124" s="4"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B125" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>384</v>
       </c>
       <c r="N125" s="4"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B126" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>386</v>
       </c>
       <c r="N126" s="4"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B127" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="N127" s="4"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B128" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>389</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>390</v>
       </c>
       <c r="N128" s="4"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B129" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C129" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>392</v>
       </c>
       <c r="N129" s="4"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B130" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>393</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>394</v>
       </c>
       <c r="N130" s="4"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B131" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>395</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>396</v>
       </c>
       <c r="N131" s="4"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B132" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>398</v>
       </c>
       <c r="N132" s="4"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B133" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>399</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>400</v>
       </c>
       <c r="N133" s="4"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B134" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C134" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>402</v>
       </c>
       <c r="N134" s="4"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B135" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C135" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="N135" s="4"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B136" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C136" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>406</v>
       </c>
       <c r="N136" s="4"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B137" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>408</v>
       </c>
       <c r="N137" s="4"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B138" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>410</v>
       </c>
       <c r="N138" s="4"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B139" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>411</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>412</v>
       </c>
       <c r="N139" s="4"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B140" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C140" s="4" t="s">
         <v>413</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>414</v>
       </c>
       <c r="N140" s="4"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B141" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>416</v>
       </c>
       <c r="N141" s="4"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B142" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C142" s="4" t="s">
         <v>417</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>418</v>
       </c>
       <c r="N142" s="4"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B143" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C143" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>420</v>
       </c>
       <c r="N143" s="4"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B144" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>421</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>422</v>
       </c>
       <c r="N144" s="4"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B145" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C145" s="4" t="s">
         <v>423</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>424</v>
       </c>
       <c r="N145" s="4"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B146" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C146" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>426</v>
       </c>
       <c r="N146" s="4"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B147" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C147" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>428</v>
       </c>
       <c r="N147" s="4"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B148" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C148" s="4" t="s">
         <v>429</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>430</v>
       </c>
       <c r="N148" s="4"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B149" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>431</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>432</v>
       </c>
       <c r="N149" s="4"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B150" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C150" s="4" t="s">
         <v>433</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>434</v>
       </c>
       <c r="N150" s="4"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B151" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C151" s="4" t="s">
         <v>435</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>436</v>
       </c>
       <c r="N151" s="4"/>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B152" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C152" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>438</v>
       </c>
       <c r="N152" s="4"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B153" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C153" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>440</v>
       </c>
       <c r="N153" s="4"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B154" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C154" s="4" t="s">
         <v>441</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>442</v>
       </c>
       <c r="N154" s="4"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B155" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C155" s="4" t="s">
         <v>443</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>444</v>
       </c>
       <c r="N155" s="4"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B156" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C156" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>446</v>
       </c>
       <c r="N156" s="4"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B157" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C157" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="N157" s="4"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B158" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C158" s="4" t="s">
         <v>449</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>450</v>
       </c>
       <c r="N158" s="4"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B159" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C159" s="4" t="s">
         <v>451</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>452</v>
       </c>
       <c r="N159" s="4"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B160" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C160" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>454</v>
       </c>
       <c r="N160" s="4"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B161" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C161" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>456</v>
       </c>
       <c r="N161" s="4"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B162" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C162" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="N162" s="4"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B163" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C163" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>460</v>
       </c>
       <c r="N163" s="4"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B164" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C164" s="4" t="s">
         <v>461</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>462</v>
       </c>
       <c r="N164" s="4"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B165" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C165" s="4" t="s">
         <v>463</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>464</v>
       </c>
       <c r="N165" s="4"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B166" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C166" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>466</v>
       </c>
       <c r="N166" s="4"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B167" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C167" s="4" t="s">
         <v>467</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>468</v>
       </c>
       <c r="N167" s="4"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B168" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C168" s="4" t="s">
         <v>469</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>470</v>
       </c>
       <c r="N168" s="4"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B169" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C169" s="4" t="s">
         <v>471</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>472</v>
       </c>
       <c r="N169" s="4"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B170" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C170" s="4" t="s">
         <v>473</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>474</v>
       </c>
       <c r="N170" s="4"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B171" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C171" s="4" t="s">
         <v>475</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>476</v>
       </c>
       <c r="N171" s="4"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B172" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C172" s="4" t="s">
         <v>477</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>478</v>
       </c>
       <c r="N172" s="4"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B173" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C173" s="4" t="s">
         <v>479</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>480</v>
       </c>
       <c r="N173" s="4"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B174" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C174" s="4" t="s">
         <v>481</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>482</v>
       </c>
       <c r="N174" s="4"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B175" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C175" s="4" t="s">
         <v>483</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>484</v>
       </c>
       <c r="N175" s="4"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B176" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C176" s="4" t="s">
         <v>485</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>486</v>
       </c>
       <c r="N176" s="4"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B177" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>487</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>488</v>
       </c>
       <c r="N177" s="4"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B178" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C178" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>490</v>
       </c>
       <c r="N178" s="4"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B179" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C179" s="4" t="s">
         <v>491</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>492</v>
       </c>
       <c r="N179" s="4"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B180" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C180" s="4" t="s">
         <v>493</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>494</v>
       </c>
       <c r="N180" s="4"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B181" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C181" s="4" t="s">
         <v>495</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>496</v>
       </c>
       <c r="N181" s="4"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B182" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C182" s="4" t="s">
         <v>497</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>498</v>
       </c>
       <c r="N182" s="4"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B183" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C183" s="4" t="s">
         <v>499</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>500</v>
       </c>
       <c r="N183" s="4"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B184" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C184" s="4" t="s">
         <v>501</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>502</v>
       </c>
       <c r="N184" s="4"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B185" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C185" s="4" t="s">
         <v>503</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>504</v>
       </c>
       <c r="N185" s="4"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B186" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C186" s="4" t="s">
         <v>505</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>506</v>
       </c>
       <c r="N186" s="4"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B187" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C187" s="4" t="s">
         <v>507</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>508</v>
       </c>
       <c r="N187" s="4"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B188" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C188" s="4" t="s">
         <v>509</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>510</v>
       </c>
       <c r="N188" s="4"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B189" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C189" s="4" t="s">
         <v>511</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>512</v>
       </c>
       <c r="N189" s="4"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B190" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>513</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>514</v>
       </c>
       <c r="N190" s="4"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B191" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C191" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="C191" s="4" t="s">
-        <v>516</v>
       </c>
       <c r="N191" s="4"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B192" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C192" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>518</v>
       </c>
       <c r="N192" s="4"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B193" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C193" s="4" t="s">
         <v>519</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>520</v>
       </c>
       <c r="N193" s="4"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B194" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C194" s="4" t="s">
         <v>521</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>522</v>
       </c>
       <c r="N194" s="4"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B195" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C195" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>524</v>
       </c>
       <c r="N195" s="4"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B196" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C196" s="4" t="s">
         <v>525</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>526</v>
       </c>
       <c r="N196" s="4"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B197" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C197" s="4" t="s">
         <v>527</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>528</v>
       </c>
       <c r="N197" s="4"/>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B198" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C198" s="4" t="s">
         <v>529</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>530</v>
       </c>
       <c r="N198" s="4"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B199" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C199" s="4" t="s">
         <v>531</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>532</v>
       </c>
       <c r="N199" s="4"/>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C200" s="4" t="s">
         <v>533</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>534</v>
       </c>
       <c r="N200" s="4"/>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C201" s="4" t="s">
         <v>535</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>536</v>
       </c>
       <c r="N201" s="4"/>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B202" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="C202" s="4" t="s">
         <v>537</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>538</v>
       </c>
       <c r="N202" s="4"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B203" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C203" s="4" t="s">
         <v>539</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>540</v>
       </c>
       <c r="N203" s="4"/>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B204" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C204" s="4" t="s">
         <v>541</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>542</v>
       </c>
       <c r="N204" s="4"/>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B205" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="C205" s="4" t="s">
         <v>543</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>544</v>
       </c>
       <c r="N205" s="4"/>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B206" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C206" s="4" t="s">
         <v>545</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>546</v>
       </c>
       <c r="N206" s="4"/>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B207" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C207" s="4" t="s">
         <v>547</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>548</v>
       </c>
       <c r="N207" s="4"/>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B208" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C208" s="4" t="s">
         <v>549</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>550</v>
       </c>
       <c r="N208" s="4"/>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B209" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C209" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>552</v>
       </c>
       <c r="N209" s="4"/>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B210" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C210" s="4" t="s">
         <v>553</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>554</v>
       </c>
       <c r="N210" s="4"/>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B211" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C211" s="4" t="s">
         <v>555</v>
-      </c>
-      <c r="C211" s="4" t="s">
-        <v>556</v>
       </c>
       <c r="N211" s="4"/>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B212" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C212" s="4" t="s">
         <v>557</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>558</v>
       </c>
       <c r="N212" s="4"/>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B213" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C213" s="4" t="s">
         <v>559</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>560</v>
       </c>
       <c r="N213" s="4"/>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B214" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C214" s="4" t="s">
         <v>561</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>562</v>
       </c>
       <c r="N214" s="4"/>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B215" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C215" s="4" t="s">
         <v>563</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>564</v>
       </c>
       <c r="N215" s="4"/>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B216" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C216" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>566</v>
       </c>
       <c r="N216" s="4"/>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B217" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C217" s="4" t="s">
         <v>567</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>568</v>
       </c>
       <c r="N217" s="4"/>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B218" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C218" s="4" t="s">
         <v>569</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>570</v>
       </c>
       <c r="N218" s="4"/>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B219" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C219" s="4" t="s">
         <v>571</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>572</v>
       </c>
       <c r="N219" s="4"/>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B220" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C220" s="4" t="s">
         <v>573</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>574</v>
       </c>
       <c r="N220" s="4"/>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B221" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C221" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>576</v>
       </c>
       <c r="N221" s="4"/>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B222" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C222" s="4" t="s">
         <v>577</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>578</v>
       </c>
       <c r="N222" s="4"/>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B223" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C223" s="4" t="s">
         <v>579</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>580</v>
       </c>
       <c r="N223" s="4"/>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B224" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C224" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>582</v>
       </c>
       <c r="N224" s="4"/>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B225" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C225" s="4" t="s">
         <v>583</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>584</v>
       </c>
       <c r="N225" s="4"/>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B226" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C226" s="4" t="s">
         <v>585</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>586</v>
       </c>
       <c r="N226" s="4"/>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B227" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C227" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>588</v>
       </c>
       <c r="N227" s="4"/>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B228" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C228" s="4" t="s">
         <v>589</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>590</v>
       </c>
       <c r="N228" s="4"/>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B229" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C229" s="4" t="s">
         <v>591</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>592</v>
       </c>
       <c r="N229" s="4"/>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B230" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="C230" s="4" t="s">
         <v>594</v>
-      </c>
-      <c r="C230" s="4" t="s">
-        <v>595</v>
       </c>
       <c r="N230" s="4"/>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B231" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C231" s="4" t="s">
         <v>596</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>597</v>
       </c>
       <c r="N231" s="4"/>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B232" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C232" s="4" t="s">
         <v>598</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>599</v>
       </c>
       <c r="N232" s="4"/>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B233" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C233" s="4" t="s">
         <v>600</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>601</v>
       </c>
       <c r="N233" s="4"/>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B234" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C234" s="4" t="s">
         <v>602</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>603</v>
       </c>
       <c r="N234" s="4"/>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B235" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C235" s="4" t="s">
         <v>604</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>605</v>
       </c>
       <c r="N235" s="4"/>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B236" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C236" s="4" t="s">
         <v>606</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>607</v>
       </c>
       <c r="N236" s="4"/>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B237" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C237" s="4" t="s">
         <v>608</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>609</v>
       </c>
       <c r="N237" s="4"/>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B238" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C238" s="4" t="s">
         <v>610</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>611</v>
       </c>
       <c r="N238" s="4"/>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B239" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="C239" s="4" t="s">
         <v>612</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>613</v>
       </c>
       <c r="N239" s="4"/>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B240" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="C240" s="4" t="s">
         <v>614</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>615</v>
       </c>
       <c r="N240" s="4"/>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B241" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C241" s="4" t="s">
         <v>616</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>617</v>
       </c>
       <c r="N241" s="4"/>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B242" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="C242" s="4" t="s">
         <v>618</v>
-      </c>
-      <c r="C242" s="4" t="s">
-        <v>619</v>
       </c>
       <c r="N242" s="4"/>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B243" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C243" s="4" t="s">
         <v>620</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>621</v>
       </c>
       <c r="N243" s="4"/>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B244" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C244" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="N244" s="4"/>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B245" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="C245" s="4" t="s">
         <v>624</v>
-      </c>
-      <c r="C245" s="4" t="s">
-        <v>625</v>
       </c>
       <c r="N245" s="4"/>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B246" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C246" s="4" t="s">
         <v>626</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>627</v>
       </c>
       <c r="N246" s="4"/>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B247" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C247" s="4" t="s">
         <v>628</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>629</v>
       </c>
       <c r="N247" s="4"/>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B248" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="C248" s="4" t="s">
         <v>630</v>
-      </c>
-      <c r="C248" s="4" t="s">
-        <v>631</v>
       </c>
       <c r="N248" s="4"/>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B249" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="C249" s="4" t="s">
         <v>632</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>633</v>
       </c>
       <c r="N249" s="4"/>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B250" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="C250" s="4" t="s">
         <v>634</v>
-      </c>
-      <c r="C250" s="4" t="s">
-        <v>635</v>
       </c>
       <c r="N250" s="4"/>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B251" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="C251" s="4" t="s">
         <v>636</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>637</v>
       </c>
       <c r="N251" s="4"/>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="N252" s="4"/>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="B253" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="C253" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="N253" s="4"/>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B254" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="C254" s="4" t="s">
         <v>642</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>643</v>
       </c>
       <c r="N254" s="4"/>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B255" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="C255" s="4" t="s">
         <v>644</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>645</v>
       </c>
       <c r="N255" s="4"/>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B256" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="C256" s="4" t="s">
         <v>646</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>647</v>
       </c>
       <c r="N256" s="4"/>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C257" s="4" t="s">
         <v>648</v>
-      </c>
-      <c r="B257" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="C257" s="4" t="s">
-        <v>649</v>
       </c>
       <c r="N257" s="4"/>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B258" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C258" s="4" t="s">
         <v>650</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>651</v>
       </c>
       <c r="N258" s="4"/>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B259" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="C259" s="4" t="s">
         <v>652</v>
-      </c>
-      <c r="C259" s="4" t="s">
-        <v>653</v>
       </c>
       <c r="N259" s="4"/>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B260" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="C260" s="4" t="s">
         <v>654</v>
-      </c>
-      <c r="C260" s="4" t="s">
-        <v>655</v>
       </c>
       <c r="N260" s="4"/>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="B261" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="C261" s="4" t="s">
         <v>657</v>
-      </c>
-      <c r="C261" s="4" t="s">
-        <v>658</v>
       </c>
       <c r="N261" s="4"/>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B262" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="C262" s="4" t="s">
         <v>659</v>
-      </c>
-      <c r="C262" s="4" t="s">
-        <v>660</v>
       </c>
       <c r="N262" s="4"/>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B263" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C263" s="4" t="s">
         <v>661</v>
-      </c>
-      <c r="C263" s="4" t="s">
-        <v>662</v>
       </c>
       <c r="N263" s="4"/>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>664</v>
+        <v>936</v>
       </c>
       <c r="N264" s="4"/>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N265" s="4"/>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N266" s="4"/>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C267" s="4" t="s">
         <v>668</v>
-      </c>
-      <c r="B267" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="C267" s="4" t="s">
-        <v>670</v>
       </c>
       <c r="N267" s="4"/>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N268" s="4"/>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="N269" s="4"/>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N270" s="4"/>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="C271" s="4" t="s">
         <v>677</v>
-      </c>
-      <c r="B271" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>679</v>
       </c>
       <c r="N271" s="4"/>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N272" s="4"/>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N273" s="4"/>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N274" s="4"/>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="N275" s="4"/>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N276" s="4"/>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="N277" s="4"/>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="N278" s="4"/>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="N279" s="4"/>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="N280" s="4"/>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="N281" s="4"/>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="N282" s="4"/>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="N283" s="4"/>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="N284" s="4"/>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="N285" s="4"/>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="N286" s="4"/>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="N287" s="4"/>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="N288" s="4"/>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="N289" s="4"/>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="N290" s="4"/>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="N291" s="4"/>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="N292" s="4"/>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="N293" s="4"/>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="N294" s="4"/>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="N295" s="4"/>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="N296" s="4"/>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="N297" s="4"/>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="N298" s="4"/>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="N299" s="4"/>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="N300" s="4"/>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="C301" s="4" t="s">
         <v>700</v>
-      </c>
-      <c r="B301" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="C301" s="4" t="s">
-        <v>702</v>
       </c>
       <c r="N301" s="4"/>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="N302" s="4"/>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="N303" s="4"/>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="N304" s="4"/>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="C305" s="4" t="s">
         <v>705</v>
-      </c>
-      <c r="B305" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="C305" s="4" t="s">
-        <v>707</v>
       </c>
       <c r="N305" s="4"/>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="N306" s="4"/>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="N307" s="4"/>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C308" s="4" t="s">
         <v>710</v>
-      </c>
-      <c r="B308" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="C308" s="4" t="s">
-        <v>712</v>
       </c>
       <c r="N308" s="4"/>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="N309" s="4"/>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="N310" s="4"/>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="N311" s="4"/>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="N312" s="4"/>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="N313" s="4"/>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="N314" s="4"/>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="N315" s="4"/>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="N316" s="4"/>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="N317" s="4"/>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="N318" s="4"/>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="N319" s="4"/>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="N320" s="4"/>
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="N321" s="4"/>
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="N322" s="4"/>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="N323" s="4"/>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="N324" s="4"/>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="N325" s="4"/>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="N326" s="4"/>
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="N327" s="4"/>
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="N328" s="4"/>
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="N329" s="4"/>
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="N330" s="4"/>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="N331" s="4"/>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="N332" s="4"/>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="N333" s="4"/>
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="N334" s="4"/>
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="N335" s="4"/>
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="N336" s="4"/>
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="N337" s="4"/>
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="N338" s="4"/>
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="N339" s="4"/>
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="N340" s="4"/>
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="N341" s="4"/>
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="N342" s="4"/>
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" s="4" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="N343" s="4"/>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="C344" s="4" t="s">
         <v>778</v>
-      </c>
-      <c r="B344" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="C344" s="4" t="s">
-        <v>780</v>
       </c>
       <c r="N344" s="4"/>
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345" s="4" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="N345" s="4"/>
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346" s="4" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="N346" s="4"/>
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B347" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="N347" s="4"/>
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B348" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="N348" s="4"/>
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="C349" s="4" t="s">
         <v>786</v>
-      </c>
-      <c r="B349" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="C349" s="4" t="s">
-        <v>788</v>
       </c>
       <c r="N349" s="4"/>
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="N350" s="4"/>
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="N351" s="4"/>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="B352" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="C352" s="11" t="s">
         <v>818</v>
-      </c>
-      <c r="B352" s="11" t="s">
-        <v>819</v>
-      </c>
-      <c r="C352" s="11" t="s">
-        <v>820</v>
       </c>
       <c r="N352" s="11"/>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353" s="11" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="N353" s="11"/>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354" s="11" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="N354" s="11"/>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355" s="11" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C355" s="11" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="N355" s="11"/>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356" s="11" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="N356" s="11"/>
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A357" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="B357" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="C357" s="11" t="s">
         <v>828</v>
-      </c>
-      <c r="B357" s="11" t="s">
-        <v>829</v>
-      </c>
-      <c r="C357" s="11" t="s">
-        <v>830</v>
       </c>
       <c r="N357" s="11"/>
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C358" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="N358" s="11"/>
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A359" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N359" s="11"/>
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="N360" s="11"/>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A361" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B361" s="11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C361" s="11" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="N361" s="11"/>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C362" s="11" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="N362" s="11"/>
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A363" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C363" s="11" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="N363" s="11"/>
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C364" s="11" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="N364" s="11"/>
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A365" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B365" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C365" s="11" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="N365" s="11"/>
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A366" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B366" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C366" s="11" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="N366" s="11"/>
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A367" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C367" s="11" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="N367" s="11"/>
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A368" s="11" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C368" s="11" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="N368" s="11"/>
     </row>
     <row r="369" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A369" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="B369" s="11" t="s">
         <v>846</v>
       </c>
-      <c r="B369" s="11" t="s">
-        <v>848</v>
-      </c>
       <c r="C369" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="N369" s="11"/>
     </row>
     <row r="370" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A370" s="11" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B370" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C370" s="11" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="N370" s="11"/>
     </row>
     <row r="371" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A371" s="11" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B371" s="11" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C371" s="11" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="N371" s="11"/>
     </row>
     <row r="372" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A372" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="B372" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="C372" s="11" t="s">
         <v>853</v>
-      </c>
-      <c r="B372" s="11" t="s">
-        <v>854</v>
-      </c>
-      <c r="C372" s="11" t="s">
-        <v>855</v>
       </c>
       <c r="N372" s="11"/>
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A373" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B373" s="11" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C373" s="11" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="N373" s="11"/>
     </row>
     <row r="374" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A374" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B374" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C374" s="11" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="N374" s="11"/>
     </row>
     <row r="375" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A375" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B375" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C375" s="11" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="N375" s="11"/>
     </row>
     <row r="376" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A376" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B376" s="11" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C376" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="N376" s="11"/>
     </row>
     <row r="377" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A377" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B377" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C377" s="11" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="N377" s="11"/>
     </row>
     <row r="378" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A378" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B378" s="11" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C378" s="11" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="N378" s="11"/>
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A379" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B379" s="11" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C379" s="11" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="N379" s="11"/>
     </row>
     <row r="380" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A380" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B380" s="11" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C380" s="11" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="N380" s="11"/>
     </row>
     <row r="381" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A381" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B381" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C381" s="11" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="N381" s="11"/>
     </row>
@@ -8916,43 +8939,43 @@
         <v>17</v>
       </c>
       <c r="C382" s="11" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="N382" s="11"/>
     </row>
     <row r="383" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B383" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C383" s="11" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="N383" s="11"/>
     </row>
     <row r="384" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B384" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C384" s="11" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="N384" s="11"/>
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B385" s="11" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C385" s="11" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="N385" s="11"/>
     </row>
@@ -8968,7 +8991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -8981,24 +9004,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>793</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C2" s="4">
-        <v>20250708</v>
+        <v>20250712</v>
       </c>
     </row>
   </sheetData>
